--- a/InputData/add-outputs/SCoHIbP/Social Cost of Health Impacts by Pollutant.xlsx
+++ b/InputData/add-outputs/SCoHIbP/Social Cost of Health Impacts by Pollutant.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Dropbox\eps-1.4.1-canada-wipC (updated)\InputData\add-outputs\SCoHIbP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C2AC8B-EABC-43BD-99B9-3EA861B36080}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="25310" windowHeight="14090"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="25305" windowHeight="14085" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -16,8 +22,13 @@
     <sheet name="SCoHIbP-bldgs-indst" sheetId="6" r:id="rId7"/>
     <sheet name="SCoHIbP-LULUCF" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -361,7 +372,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -560,20 +571,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -622,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -655,9 +669,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -690,6 +721,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -865,23 +913,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="47.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,143 +939,143 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>1.141</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -1042,26 +1092,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -1072,7 +1124,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -1083,7 +1135,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -1094,12 +1146,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2012</v>
       </c>
@@ -1107,7 +1159,7 @@
         <v>229.95400000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2015</v>
       </c>
@@ -1115,14 +1167,14 @@
         <v>237.017</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.329</v>
+        <v>1.3900999999999999</v>
       </c>
       <c r="B12" t="s">
         <v>94</v>
@@ -1131,7 +1183,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
@@ -1142,7 +1194,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>A4</f>
         <v>Canada</v>
@@ -1156,93 +1208,93 @@
         <v>CAD 2015$</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="str">
         <f>A5</f>
         <v>USA</v>
       </c>
       <c r="B16" s="22">
         <f>B5*(B9/B8)*A12</f>
-        <v>11565938.361307913</v>
+        <v>12097675.63284735</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <f>B15/B16</f>
-        <v>0.63786437118498773</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>0.60982788957977763</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -1253,17 +1305,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="13" width="14.453125" customWidth="1"/>
+    <col min="2" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
@@ -1314,7 +1366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2015</v>
       </c>
@@ -1355,7 +1407,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2020</v>
       </c>
@@ -1396,7 +1448,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2030</v>
       </c>
@@ -1448,57 +1500,57 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.453125" customWidth="1"/>
-    <col min="11" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>50</v>
       </c>
@@ -1508,7 +1560,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1528,7 +1580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2015</v>
       </c>
@@ -1553,7 +1605,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2020</v>
       </c>
@@ -1578,7 +1630,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2030</v>
       </c>
@@ -1603,7 +1655,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>51</v>
       </c>
@@ -1613,7 +1665,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1633,7 +1685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2015</v>
       </c>
@@ -1658,7 +1710,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2020</v>
       </c>
@@ -1683,7 +1735,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2030</v>
       </c>
@@ -1708,7 +1760,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
@@ -1718,7 +1770,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -1738,7 +1790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2015</v>
       </c>
@@ -1763,7 +1815,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2020</v>
       </c>
@@ -1788,7 +1840,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2030</v>
       </c>
@@ -1813,7 +1865,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1821,7 +1873,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>62</v>
       </c>
@@ -1831,7 +1883,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1851,7 +1903,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2015</v>
       </c>
@@ -1876,7 +1928,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2020</v>
       </c>
@@ -1901,7 +1953,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2030</v>
       </c>
@@ -1926,32 +1978,32 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>50</v>
       </c>
@@ -1968,7 +2020,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -2009,7 +2061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>2015</v>
       </c>
@@ -2054,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>2020</v>
       </c>
@@ -2099,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>2030</v>
       </c>
@@ -2144,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>51</v>
       </c>
@@ -2161,7 +2213,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -2202,7 +2254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>2015</v>
       </c>
@@ -2247,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>2020</v>
       </c>
@@ -2292,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>2030</v>
       </c>
@@ -2337,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>52</v>
       </c>
@@ -2354,7 +2406,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -2395,7 +2447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>2015</v>
       </c>
@@ -2440,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>2020</v>
       </c>
@@ -2485,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>2030</v>
       </c>
@@ -2530,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="C57" s="5"/>
       <c r="E57" s="5"/>
@@ -2538,7 +2590,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>62</v>
       </c>
@@ -2555,7 +2607,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
@@ -2596,7 +2648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>2015</v>
       </c>
@@ -2641,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>2020</v>
       </c>
@@ -2686,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>2030</v>
       </c>
@@ -2731,12 +2783,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>50</v>
       </c>
@@ -2753,7 +2805,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
@@ -2794,7 +2846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>2015</v>
       </c>
@@ -2847,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>2020</v>
       </c>
@@ -2900,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>2030</v>
       </c>
@@ -2953,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>51</v>
       </c>
@@ -2970,7 +3022,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -3011,7 +3063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>2015</v>
       </c>
@@ -3064,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>2020</v>
       </c>
@@ -3117,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>2030</v>
       </c>
@@ -3170,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>52</v>
       </c>
@@ -3187,7 +3239,7 @@
       <c r="L78" s="10"/>
       <c r="M78" s="10"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
@@ -3228,7 +3280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>2015</v>
       </c>
@@ -3281,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>2020</v>
       </c>
@@ -3334,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>2030</v>
       </c>
@@ -3387,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3402,7 +3454,7 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>62</v>
       </c>
@@ -3419,7 +3471,7 @@
       <c r="L84" s="10"/>
       <c r="M84" s="10"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -3460,7 +3512,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>2015</v>
       </c>
@@ -3513,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>2020</v>
       </c>
@@ -3566,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>2030</v>
       </c>
@@ -3619,12 +3671,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>35</v>
       </c>
@@ -3633,7 +3685,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="94" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>50</v>
       </c>
@@ -3650,7 +3702,7 @@
       <c r="L94" s="10"/>
       <c r="M94" s="10"/>
     </row>
-    <row r="95" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -3691,7 +3743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>2015</v>
       </c>
@@ -3744,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>2020</v>
       </c>
@@ -3797,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>2030</v>
       </c>
@@ -3850,8 +3902,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>51</v>
       </c>
@@ -3868,7 +3920,7 @@
       <c r="L100" s="10"/>
       <c r="M100" s="10"/>
     </row>
-    <row r="101" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -3909,7 +3961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>2015</v>
       </c>
@@ -3962,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>2020</v>
       </c>
@@ -4015,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>2030</v>
       </c>
@@ -4068,8 +4120,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>52</v>
       </c>
@@ -4086,7 +4138,7 @@
       <c r="L106" s="10"/>
       <c r="M106" s="10"/>
     </row>
-    <row r="107" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
@@ -4127,7 +4179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>2015</v>
       </c>
@@ -4180,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>2020</v>
       </c>
@@ -4233,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>2030</v>
       </c>
@@ -4286,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="5"/>
       <c r="C111" s="15"/>
@@ -4301,7 +4353,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
     </row>
-    <row r="112" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
         <v>62</v>
       </c>
@@ -4318,7 +4370,7 @@
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
     </row>
-    <row r="113" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>9</v>
       </c>
@@ -4359,7 +4411,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>2015</v>
       </c>
@@ -4412,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>2020</v>
       </c>
@@ -4465,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>2030</v>
       </c>
@@ -4518,75 +4570,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="129" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="134" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="20">
         <f>'Scaling Factors'!A19</f>
-        <v>0.63786437118498773</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.60982788957977763</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>50</v>
       </c>
@@ -4603,7 +4655,7 @@
       <c r="L136" s="10"/>
       <c r="M136" s="10"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>9</v>
       </c>
@@ -4644,7 +4696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>2015</v>
       </c>
@@ -4654,7 +4706,7 @@
       </c>
       <c r="C138" s="19">
         <f t="shared" ref="C138:M138" si="18">C96*$A$131*$A$134</f>
-        <v>2.0378490930617991E-3</v>
+        <v>1.9482781416294737E-3</v>
       </c>
       <c r="D138" s="5">
         <f t="shared" si="18"/>
@@ -4662,7 +4714,7 @@
       </c>
       <c r="E138" s="19">
         <f t="shared" si="18"/>
-        <v>8.7336389702648513E-3</v>
+        <v>8.3497634641263151E-3</v>
       </c>
       <c r="F138" s="5">
         <f t="shared" si="18"/>
@@ -4670,11 +4722,11 @@
       </c>
       <c r="G138" s="19">
         <f t="shared" si="18"/>
-        <v>0.45851604593890471</v>
+        <v>0.43836258186663152</v>
       </c>
       <c r="H138" s="19">
         <f t="shared" si="18"/>
-        <v>4.8762817583978761E-2</v>
+        <v>4.6619512674705259E-2</v>
       </c>
       <c r="I138" s="5">
         <f t="shared" si="18"/>
@@ -4697,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>2020</v>
       </c>
@@ -4707,7 +4759,7 @@
       </c>
       <c r="C139" s="19">
         <f t="shared" si="19"/>
-        <v>2.2561900673184203E-3</v>
+        <v>2.1570222282326313E-3</v>
       </c>
       <c r="D139" s="5">
         <f t="shared" si="19"/>
@@ -4715,7 +4767,7 @@
       </c>
       <c r="E139" s="19">
         <f t="shared" si="19"/>
-        <v>9.4614422177869226E-3</v>
+        <v>9.0455770861368415E-3</v>
       </c>
       <c r="F139" s="5">
         <f t="shared" si="19"/>
@@ -4723,11 +4775,11 @@
       </c>
       <c r="G139" s="19">
         <f t="shared" si="19"/>
-        <v>0.50946227326544968</v>
+        <v>0.48706953540736836</v>
       </c>
       <c r="H139" s="19">
         <f t="shared" si="19"/>
-        <v>5.3857440316633254E-2</v>
+        <v>5.149020802877894E-2</v>
       </c>
       <c r="I139" s="5">
         <f t="shared" si="19"/>
@@ -4750,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>2030</v>
       </c>
@@ -4760,7 +4812,7 @@
       </c>
       <c r="C140" s="19">
         <f t="shared" si="20"/>
-        <v>2.620091691079456E-3</v>
+        <v>2.504929039237895E-3</v>
       </c>
       <c r="D140" s="5">
         <f t="shared" si="20"/>
@@ -4768,7 +4820,7 @@
       </c>
       <c r="E140" s="19">
         <f t="shared" si="20"/>
-        <v>1.0917048712831064E-2</v>
+        <v>1.0437204330157893E-2</v>
       </c>
       <c r="F140" s="5">
         <f t="shared" si="20"/>
@@ -4776,11 +4828,11 @@
       </c>
       <c r="G140" s="19">
         <f t="shared" si="20"/>
-        <v>0.60407669544331899</v>
+        <v>0.57752530626873688</v>
       </c>
       <c r="H140" s="19">
         <f t="shared" si="20"/>
-        <v>6.3318882534420168E-2</v>
+        <v>6.053578511491578E-2</v>
       </c>
       <c r="I140" s="5">
         <f t="shared" si="20"/>
@@ -4803,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>51</v>
       </c>
@@ -4820,7 +4872,7 @@
       <c r="L142" s="10"/>
       <c r="M142" s="10"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
@@ -4861,7 +4913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>2015</v>
       </c>
@@ -4871,7 +4923,7 @@
       </c>
       <c r="C144" s="19">
         <f t="shared" ref="C144:M144" si="21">C102*$A$131*$A$134</f>
-        <v>2.0378490930617991E-3</v>
+        <v>1.9482781416294737E-3</v>
       </c>
       <c r="D144" s="5">
         <f t="shared" si="21"/>
@@ -4879,7 +4931,7 @@
       </c>
       <c r="E144" s="19">
         <f t="shared" si="21"/>
-        <v>1.2372655207875208E-2</v>
+        <v>1.1828831574178947E-2</v>
       </c>
       <c r="F144" s="5">
         <f t="shared" si="21"/>
@@ -4887,11 +4939,11 @@
       </c>
       <c r="G144" s="19">
         <f t="shared" si="21"/>
-        <v>0.37845768871147689</v>
+        <v>0.36182308344547365</v>
       </c>
       <c r="H144" s="19">
         <f t="shared" si="21"/>
-        <v>6.8413505267074681E-2</v>
+        <v>6.5406480468989475E-2</v>
       </c>
       <c r="I144" s="5">
         <f t="shared" si="21"/>
@@ -4914,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>2020</v>
       </c>
@@ -4924,7 +4976,7 @@
       </c>
       <c r="C145" s="19">
         <f t="shared" si="22"/>
-        <v>2.2561900673184203E-3</v>
+        <v>2.1570222282326313E-3</v>
       </c>
       <c r="D145" s="5">
         <f t="shared" si="22"/>
@@ -4932,7 +4984,7 @@
       </c>
       <c r="E145" s="19">
         <f t="shared" si="22"/>
-        <v>1.3828261702919349E-2</v>
+        <v>1.32204588182E-2</v>
       </c>
       <c r="F145" s="5">
         <f t="shared" si="22"/>
@@ -4940,11 +4992,11 @@
       </c>
       <c r="G145" s="19">
         <f t="shared" si="22"/>
-        <v>0.41484785108758049</v>
+        <v>0.396613764546</v>
       </c>
       <c r="H145" s="19">
         <f t="shared" si="22"/>
-        <v>7.2780324752207096E-2</v>
+        <v>6.9581362201052627E-2</v>
       </c>
       <c r="I145" s="5">
         <f t="shared" si="22"/>
@@ -4967,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>2030</v>
       </c>
@@ -4977,7 +5029,7 @@
       </c>
       <c r="C146" s="19">
         <f t="shared" si="23"/>
-        <v>2.620091691079456E-3</v>
+        <v>2.504929039237895E-3</v>
       </c>
       <c r="D146" s="5">
         <f t="shared" si="23"/>
@@ -4985,7 +5037,7 @@
       </c>
       <c r="E146" s="19">
         <f t="shared" si="23"/>
-        <v>1.6011671445485563E-2</v>
+        <v>1.5307899684231577E-2</v>
       </c>
       <c r="F146" s="5">
         <f t="shared" si="23"/>
@@ -4993,11 +5045,11 @@
       </c>
       <c r="G146" s="19">
         <f t="shared" si="23"/>
-        <v>0.48035014336456683</v>
+        <v>0.45923699052694733</v>
       </c>
       <c r="H146" s="19">
         <f t="shared" si="23"/>
-        <v>8.7336389702648509E-2</v>
+        <v>8.3497634641263141E-2</v>
       </c>
       <c r="I146" s="5">
         <f t="shared" si="23"/>
@@ -5020,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>52</v>
       </c>
@@ -5037,7 +5089,7 @@
       <c r="L148" s="10"/>
       <c r="M148" s="10"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>9</v>
       </c>
@@ -5078,7 +5130,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>2015</v>
       </c>
@@ -5088,7 +5140,7 @@
       </c>
       <c r="C150" s="19">
         <f t="shared" ref="C150:M150" si="24">C108*$A$131*$A$134</f>
-        <v>2.0378490930617991E-3</v>
+        <v>1.9482781416294737E-3</v>
       </c>
       <c r="D150" s="5">
         <f t="shared" si="24"/>
@@ -5096,7 +5148,7 @@
       </c>
       <c r="E150" s="19">
         <f t="shared" si="24"/>
-        <v>8.0058357227427816E-3</v>
+        <v>7.6539498421157887E-3</v>
       </c>
       <c r="F150" s="5">
         <f t="shared" si="24"/>
@@ -5104,11 +5156,11 @@
       </c>
       <c r="G150" s="19">
         <f t="shared" si="24"/>
-        <v>0.37845768871147689</v>
+        <v>0.36182308344547365</v>
       </c>
       <c r="H150" s="19">
         <f t="shared" si="24"/>
-        <v>4.8762817583978761E-2</v>
+        <v>4.6619512674705259E-2</v>
       </c>
       <c r="I150" s="5">
         <f t="shared" si="24"/>
@@ -5131,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>2020</v>
       </c>
@@ -5141,7 +5193,7 @@
       </c>
       <c r="C151" s="19">
         <f t="shared" si="25"/>
-        <v>2.2561900673184203E-3</v>
+        <v>2.1570222282326313E-3</v>
       </c>
       <c r="D151" s="5">
         <f t="shared" si="25"/>
@@ -5149,7 +5201,7 @@
       </c>
       <c r="E151" s="19">
         <f t="shared" si="25"/>
-        <v>8.7336389702648513E-3</v>
+        <v>8.3497634641263151E-3</v>
       </c>
       <c r="F151" s="5">
         <f t="shared" si="25"/>
@@ -5157,11 +5209,11 @@
       </c>
       <c r="G151" s="19">
         <f t="shared" si="25"/>
-        <v>0.41484785108758049</v>
+        <v>0.396613764546</v>
       </c>
       <c r="H151" s="19">
         <f t="shared" si="25"/>
-        <v>5.3857440316633254E-2</v>
+        <v>5.149020802877894E-2</v>
       </c>
       <c r="I151" s="5">
         <f t="shared" si="25"/>
@@ -5184,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>2030</v>
       </c>
@@ -5194,7 +5246,7 @@
       </c>
       <c r="C152" s="19">
         <f t="shared" si="26"/>
-        <v>2.620091691079456E-3</v>
+        <v>2.504929039237895E-3</v>
       </c>
       <c r="D152" s="5">
         <f t="shared" si="26"/>
@@ -5202,7 +5254,7 @@
       </c>
       <c r="E152" s="19">
         <f t="shared" si="26"/>
-        <v>1.0189245465308994E-2</v>
+        <v>9.7413907081473662E-3</v>
       </c>
       <c r="F152" s="5">
         <f t="shared" si="26"/>
@@ -5210,11 +5262,11 @@
       </c>
       <c r="G152" s="19">
         <f t="shared" si="26"/>
-        <v>0.48035014336456683</v>
+        <v>0.45923699052694733</v>
       </c>
       <c r="H152" s="19">
         <f t="shared" si="26"/>
-        <v>6.3318882534420168E-2</v>
+        <v>6.053578511491578E-2</v>
       </c>
       <c r="I152" s="5">
         <f t="shared" si="26"/>
@@ -5237,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="5"/>
       <c r="C153" s="15"/>
@@ -5252,7 +5304,7 @@
       <c r="L153" s="5"/>
       <c r="M153" s="5"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
         <v>62</v>
       </c>
@@ -5269,7 +5321,7 @@
       <c r="L154" s="10"/>
       <c r="M154" s="10"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>9</v>
       </c>
@@ -5310,7 +5362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>2015</v>
       </c>
@@ -5320,7 +5372,7 @@
       </c>
       <c r="C156" s="19">
         <f t="shared" ref="C156:M156" si="27">C114*$A$131*$A$134</f>
-        <v>2.0378490930617991E-3</v>
+        <v>1.9482781416294737E-3</v>
       </c>
       <c r="D156" s="5">
         <f t="shared" si="27"/>
@@ -5328,7 +5380,7 @@
       </c>
       <c r="E156" s="19">
         <f t="shared" si="27"/>
-        <v>8.0058357227427816E-3</v>
+        <v>7.6539498421157887E-3</v>
       </c>
       <c r="F156" s="5">
         <f t="shared" si="27"/>
@@ -5336,11 +5388,11 @@
       </c>
       <c r="G156" s="19">
         <f t="shared" si="27"/>
-        <v>0.59679866296809825</v>
+        <v>0.57056717004863156</v>
       </c>
       <c r="H156" s="19">
         <f t="shared" si="27"/>
-        <v>3.3478949386015262E-2</v>
+        <v>3.2007426612484208E-2</v>
       </c>
       <c r="I156" s="5">
         <f t="shared" si="27"/>
@@ -5363,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>2020</v>
       </c>
@@ -5373,7 +5425,7 @@
       </c>
       <c r="C157" s="19">
         <f t="shared" si="28"/>
-        <v>2.2561900673184203E-3</v>
+        <v>2.1570222282326313E-3</v>
       </c>
       <c r="D157" s="5">
         <f t="shared" si="28"/>
@@ -5381,7 +5433,7 @@
       </c>
       <c r="E157" s="19">
         <f t="shared" si="28"/>
-        <v>8.7336389702648513E-3</v>
+        <v>8.3497634641263151E-3</v>
       </c>
       <c r="F157" s="5">
         <f t="shared" si="28"/>
@@ -5389,11 +5441,11 @@
       </c>
       <c r="G157" s="19">
         <f t="shared" si="28"/>
-        <v>0.6623009552450847</v>
+        <v>0.63319039602957894</v>
       </c>
       <c r="H157" s="19">
         <f t="shared" si="28"/>
-        <v>3.6390162376103548E-2</v>
+        <v>3.4790681100526313E-2</v>
       </c>
       <c r="I157" s="5">
         <f t="shared" si="28"/>
@@ -5416,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>2030</v>
       </c>
@@ -5426,7 +5478,7 @@
       </c>
       <c r="C158" s="19">
         <f t="shared" si="29"/>
-        <v>2.620091691079456E-3</v>
+        <v>2.504929039237895E-3</v>
       </c>
       <c r="D158" s="5">
         <f t="shared" si="29"/>
@@ -5434,7 +5486,7 @@
       </c>
       <c r="E158" s="19">
         <f t="shared" si="29"/>
-        <v>1.0189245465308994E-2</v>
+        <v>9.7413907081473662E-3</v>
       </c>
       <c r="F158" s="5">
         <f t="shared" si="29"/>
@@ -5442,11 +5494,11 @@
       </c>
       <c r="G158" s="19">
         <f t="shared" si="29"/>
-        <v>0.80058357227427812</v>
+        <v>0.76539498421157892</v>
       </c>
       <c r="H158" s="19">
         <f t="shared" si="29"/>
-        <v>4.3668194851324255E-2</v>
+        <v>4.174881732063157E-2</v>
       </c>
       <c r="I158" s="5">
         <f t="shared" si="29"/>
@@ -5469,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>60</v>
       </c>
@@ -5486,17 +5538,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:M37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -5537,7 +5591,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -5547,7 +5601,7 @@
       </c>
       <c r="C2" s="11">
         <f>TREND(Calculations!C$138:C$139,Calculations!$A$138:$A$139,$A2)</f>
-        <v>2.0378490930618026E-3</v>
+        <v>1.9482781416294837E-3</v>
       </c>
       <c r="D2" s="11">
         <f>TREND(Calculations!D$138:D$139,Calculations!$A$138:$A$139,$A2)</f>
@@ -5555,7 +5609,7 @@
       </c>
       <c r="E2" s="11">
         <f>TREND(Calculations!E$138:E$139,Calculations!$A$138:$A$139,$A2)</f>
-        <v>8.7336389702648565E-3</v>
+        <v>8.349763464126303E-3</v>
       </c>
       <c r="F2" s="11">
         <f>TREND(Calculations!F$138:F$139,Calculations!$A$138:$A$139,$A2)</f>
@@ -5563,11 +5617,11 @@
       </c>
       <c r="G2" s="11">
         <f>TREND(Calculations!G$138:G$139,Calculations!$A$138:$A$139,$A2)</f>
-        <v>0.45851604593890727</v>
+        <v>0.43836258186663102</v>
       </c>
       <c r="H2" s="11">
         <f>TREND(Calculations!H$138:H$139,Calculations!$A$138:$A$139,$A2)</f>
-        <v>4.8762817583978713E-2</v>
+        <v>4.6619512674705321E-2</v>
       </c>
       <c r="I2" s="11">
         <f>TREND(Calculations!I$138:I$139,Calculations!$A$138:$A$139,$A2)</f>
@@ -5590,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -5600,7 +5654,7 @@
       </c>
       <c r="C3" s="11">
         <f>TREND(Calculations!C$138:C$139,Calculations!$A$138:$A$139,$A3)</f>
-        <v>2.0815172879131288E-3</v>
+        <v>1.9900269589501057E-3</v>
       </c>
       <c r="D3" s="11">
         <f>TREND(Calculations!D$138:D$139,Calculations!$A$138:$A$139,$A3)</f>
@@ -5608,7 +5662,7 @@
       </c>
       <c r="E3" s="11">
         <f>TREND(Calculations!E$138:E$139,Calculations!$A$138:$A$139,$A3)</f>
-        <v>8.8791996197692402E-3</v>
+        <v>8.4889261885283673E-3</v>
       </c>
       <c r="F3" s="11">
         <f>TREND(Calculations!F$138:F$139,Calculations!$A$138:$A$139,$A3)</f>
@@ -5616,11 +5670,11 @@
       </c>
       <c r="G3" s="11">
         <f>TREND(Calculations!G$138:G$139,Calculations!$A$138:$A$139,$A3)</f>
-        <v>0.46870529140421624</v>
+        <v>0.44810397257477774</v>
       </c>
       <c r="H3" s="11">
         <f>TREND(Calculations!H$138:H$139,Calculations!$A$138:$A$139,$A3)</f>
-        <v>4.9781742130509787E-2</v>
+        <v>4.7593651745519994E-2</v>
       </c>
       <c r="I3" s="11">
         <f>TREND(Calculations!I$138:I$139,Calculations!$A$138:$A$139,$A3)</f>
@@ -5643,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -5653,7 +5707,7 @@
       </c>
       <c r="C4" s="11">
         <f>TREND(Calculations!C$138:C$139,Calculations!$A$138:$A$139,$A4)</f>
-        <v>2.1251854827644412E-3</v>
+        <v>2.0317757762707417E-3</v>
       </c>
       <c r="D4" s="11">
         <f>TREND(Calculations!D$138:D$139,Calculations!$A$138:$A$139,$A4)</f>
@@ -5661,7 +5715,7 @@
       </c>
       <c r="E4" s="11">
         <f>TREND(Calculations!E$138:E$139,Calculations!$A$138:$A$139,$A4)</f>
-        <v>9.0247602692736795E-3</v>
+        <v>8.6280889129304872E-3</v>
       </c>
       <c r="F4" s="11">
         <f>TREND(Calculations!F$138:F$139,Calculations!$A$138:$A$139,$A4)</f>
@@ -5669,11 +5723,11 @@
       </c>
       <c r="G4" s="11">
         <f>TREND(Calculations!G$138:G$139,Calculations!$A$138:$A$139,$A4)</f>
-        <v>0.47889453686952521</v>
+        <v>0.45784536328292447</v>
       </c>
       <c r="H4" s="11">
         <f>TREND(Calculations!H$138:H$139,Calculations!$A$138:$A$139,$A4)</f>
-        <v>5.0800666677040418E-2</v>
+        <v>4.8567790816334666E-2</v>
       </c>
       <c r="I4" s="11">
         <f>TREND(Calculations!I$138:I$139,Calculations!$A$138:$A$139,$A4)</f>
@@ -5696,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -5706,7 +5760,7 @@
       </c>
       <c r="C5" s="11">
         <f>TREND(Calculations!C$138:C$139,Calculations!$A$138:$A$139,$A5)</f>
-        <v>2.1688536776157674E-3</v>
+        <v>2.0735245935913776E-3</v>
       </c>
       <c r="D5" s="11">
         <f>TREND(Calculations!D$138:D$139,Calculations!$A$138:$A$139,$A5)</f>
@@ -5714,7 +5768,7 @@
       </c>
       <c r="E5" s="11">
         <f>TREND(Calculations!E$138:E$139,Calculations!$A$138:$A$139,$A5)</f>
-        <v>9.1703209187781187E-3</v>
+        <v>8.767251637332607E-3</v>
       </c>
       <c r="F5" s="11">
         <f>TREND(Calculations!F$138:F$139,Calculations!$A$138:$A$139,$A5)</f>
@@ -5722,11 +5776,11 @@
       </c>
       <c r="G5" s="11">
         <f>TREND(Calculations!G$138:G$139,Calculations!$A$138:$A$139,$A5)</f>
-        <v>0.48908378233483418</v>
+        <v>0.46758675399107474</v>
       </c>
       <c r="H5" s="11">
         <f>TREND(Calculations!H$138:H$139,Calculations!$A$138:$A$139,$A5)</f>
-        <v>5.1819591223571493E-2</v>
+        <v>4.9541929887149339E-2</v>
       </c>
       <c r="I5" s="11">
         <f>TREND(Calculations!I$138:I$139,Calculations!$A$138:$A$139,$A5)</f>
@@ -5749,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -5759,7 +5813,7 @@
       </c>
       <c r="C6" s="11">
         <f>TREND(Calculations!C$138:C$139,Calculations!$A$138:$A$139,$A6)</f>
-        <v>2.2125218724670936E-3</v>
+        <v>2.1152734109119997E-3</v>
       </c>
       <c r="D6" s="11">
         <f>TREND(Calculations!D$138:D$139,Calculations!$A$138:$A$139,$A6)</f>
@@ -5767,7 +5821,7 @@
       </c>
       <c r="E6" s="11">
         <f>TREND(Calculations!E$138:E$139,Calculations!$A$138:$A$139,$A6)</f>
-        <v>9.3158815682825025E-3</v>
+        <v>8.9064143617347269E-3</v>
       </c>
       <c r="F6" s="11">
         <f>TREND(Calculations!F$138:F$139,Calculations!$A$138:$A$139,$A6)</f>
@@ -5775,11 +5829,11 @@
       </c>
       <c r="G6" s="11">
         <f>TREND(Calculations!G$138:G$139,Calculations!$A$138:$A$139,$A6)</f>
-        <v>0.49927302780014315</v>
+        <v>0.47732814469922147</v>
       </c>
       <c r="H6" s="11">
         <f>TREND(Calculations!H$138:H$139,Calculations!$A$138:$A$139,$A6)</f>
-        <v>5.2838515770102568E-2</v>
+        <v>5.0516068957964233E-2</v>
       </c>
       <c r="I6" s="11">
         <f>TREND(Calculations!I$138:I$139,Calculations!$A$138:$A$139,$A6)</f>
@@ -5802,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>2020</v>
       </c>
@@ -5812,7 +5866,7 @@
       </c>
       <c r="C7" s="14">
         <f>TREND(Calculations!C$138:C$139,Calculations!$A$138:$A$139,$A7)</f>
-        <v>2.2561900673184199E-3</v>
+        <v>2.1570222282326357E-3</v>
       </c>
       <c r="D7" s="14">
         <f>TREND(Calculations!D$138:D$139,Calculations!$A$138:$A$139,$A7)</f>
@@ -5820,7 +5874,7 @@
       </c>
       <c r="E7" s="14">
         <f>TREND(Calculations!E$138:E$139,Calculations!$A$138:$A$139,$A7)</f>
-        <v>9.4614422177869417E-3</v>
+        <v>9.0455770861367912E-3</v>
       </c>
       <c r="F7" s="14">
         <f>TREND(Calculations!F$138:F$139,Calculations!$A$138:$A$139,$A7)</f>
@@ -5828,11 +5882,11 @@
       </c>
       <c r="G7" s="14">
         <f>TREND(Calculations!G$138:G$139,Calculations!$A$138:$A$139,$A7)</f>
-        <v>0.50946227326545213</v>
+        <v>0.48706953540736819</v>
       </c>
       <c r="H7" s="14">
         <f>TREND(Calculations!H$138:H$139,Calculations!$A$138:$A$139,$A7)</f>
-        <v>5.3857440316633198E-2</v>
+        <v>5.1490208028778905E-2</v>
       </c>
       <c r="I7" s="14">
         <f>TREND(Calculations!I$138:I$139,Calculations!$A$138:$A$139,$A7)</f>
@@ -5855,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -5865,7 +5919,7 @@
       </c>
       <c r="C8" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A8)</f>
-        <v>2.2925802296945297E-3</v>
+        <v>2.1918129093331518E-3</v>
       </c>
       <c r="D8" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A8)</f>
@@ -5873,7 +5927,7 @@
       </c>
       <c r="E8" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A8)</f>
-        <v>9.6070028672913255E-3</v>
+        <v>9.1847398105389666E-3</v>
       </c>
       <c r="F8" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A8)</f>
@@ -5881,11 +5935,11 @@
       </c>
       <c r="G8" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A8)</f>
-        <v>0.51892371548323624</v>
+        <v>0.49611511249350571</v>
       </c>
       <c r="H8" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A8)</f>
-        <v>5.4803584538412053E-2</v>
+        <v>5.2394765737392657E-2</v>
       </c>
       <c r="I8" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A8)</f>
@@ -5908,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -5918,7 +5972,7 @@
       </c>
       <c r="C9" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A9)</f>
-        <v>2.3289703920706395E-3</v>
+        <v>2.2266035904336817E-3</v>
       </c>
       <c r="D9" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A9)</f>
@@ -5926,7 +5980,7 @@
       </c>
       <c r="E9" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A9)</f>
-        <v>9.7525635167957647E-3</v>
+        <v>9.3239025349410865E-3</v>
       </c>
       <c r="F9" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A9)</f>
@@ -5934,11 +5988,11 @@
       </c>
       <c r="G9" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A9)</f>
-        <v>0.52838515770102035</v>
+        <v>0.50516068957964322</v>
       </c>
       <c r="H9" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A9)</f>
-        <v>5.5749728760190687E-2</v>
+        <v>5.3299323446006408E-2</v>
       </c>
       <c r="I9" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A9)</f>
@@ -5961,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -5971,7 +6025,7 @@
       </c>
       <c r="C10" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A10)</f>
-        <v>2.3653605544467354E-3</v>
+        <v>2.2613942715341978E-3</v>
       </c>
       <c r="D10" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A10)</f>
@@ -5979,7 +6033,7 @@
       </c>
       <c r="E10" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A10)</f>
-        <v>9.8981241663001485E-3</v>
+        <v>9.4630652593432063E-3</v>
       </c>
       <c r="F10" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A10)</f>
@@ -5987,11 +6041,11 @@
       </c>
       <c r="G10" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A10)</f>
-        <v>0.53784659991880801</v>
+        <v>0.51420626666578073</v>
       </c>
       <c r="H10" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A10)</f>
-        <v>5.669587298196932E-2</v>
+        <v>5.4203881154620159E-2</v>
       </c>
       <c r="I10" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A10)</f>
@@ -6014,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -6024,7 +6078,7 @@
       </c>
       <c r="C11" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A11)</f>
-        <v>2.4017507168228452E-3</v>
+        <v>2.2961849526347278E-3</v>
       </c>
       <c r="D11" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A11)</f>
@@ -6032,7 +6086,7 @@
       </c>
       <c r="E11" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A11)</f>
-        <v>1.0043684815804588E-2</v>
+        <v>9.6022279837452706E-3</v>
       </c>
       <c r="F11" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A11)</f>
@@ -6040,11 +6094,11 @@
       </c>
       <c r="G11" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A11)</f>
-        <v>0.54730804213659567</v>
+        <v>0.52325184375191469</v>
       </c>
       <c r="H11" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A11)</f>
-        <v>5.7642017203748175E-2</v>
+        <v>5.5108438863233689E-2</v>
       </c>
       <c r="I11" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A11)</f>
@@ -6067,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2025</v>
       </c>
@@ -6077,7 +6131,7 @@
       </c>
       <c r="C12" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A12)</f>
-        <v>2.4381408791989412E-3</v>
+        <v>2.3309756337352577E-3</v>
       </c>
       <c r="D12" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A12)</f>
@@ -6085,7 +6139,7 @@
       </c>
       <c r="E12" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A12)</f>
-        <v>1.0189245465308971E-2</v>
+        <v>9.7413907081473905E-3</v>
       </c>
       <c r="F12" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A12)</f>
@@ -6093,11 +6147,11 @@
       </c>
       <c r="G12" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A12)</f>
-        <v>0.55676948435438334</v>
+        <v>0.5322974208380522</v>
       </c>
       <c r="H12" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A12)</f>
-        <v>5.8588161425526808E-2</v>
+        <v>5.601299657184744E-2</v>
       </c>
       <c r="I12" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A12)</f>
@@ -6120,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2026</v>
       </c>
@@ -6130,7 +6184,7 @@
       </c>
       <c r="C13" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A13)</f>
-        <v>2.474531041575051E-3</v>
+        <v>2.3657663148357877E-3</v>
       </c>
       <c r="D13" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A13)</f>
@@ -6138,7 +6192,7 @@
       </c>
       <c r="E13" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A13)</f>
-        <v>1.0334806114813411E-2</v>
+        <v>9.8805534325495104E-3</v>
       </c>
       <c r="F13" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A13)</f>
@@ -6146,11 +6200,11 @@
       </c>
       <c r="G13" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A13)</f>
-        <v>0.566230926572171</v>
+        <v>0.54134299792418972</v>
       </c>
       <c r="H13" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A13)</f>
-        <v>5.9534305647305441E-2</v>
+        <v>5.6917554280461191E-2</v>
       </c>
       <c r="I13" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A13)</f>
@@ -6173,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2027</v>
       </c>
@@ -6183,7 +6237,7 @@
       </c>
       <c r="C14" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A14)</f>
-        <v>2.5109212039511469E-3</v>
+        <v>2.4005569959363038E-3</v>
       </c>
       <c r="D14" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A14)</f>
@@ -6191,7 +6245,7 @@
       </c>
       <c r="E14" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A14)</f>
-        <v>1.048036676431785E-2</v>
+        <v>1.001971615695163E-2</v>
       </c>
       <c r="F14" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A14)</f>
@@ -6199,11 +6253,11 @@
       </c>
       <c r="G14" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A14)</f>
-        <v>0.57569236878995511</v>
+        <v>0.55038857501032723</v>
       </c>
       <c r="H14" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A14)</f>
-        <v>6.0480449869084296E-2</v>
+        <v>5.782211198907472E-2</v>
       </c>
       <c r="I14" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A14)</f>
@@ -6226,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2028</v>
       </c>
@@ -6236,7 +6290,7 @@
       </c>
       <c r="C15" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A15)</f>
-        <v>2.5473113663272567E-3</v>
+        <v>2.4353476770368337E-3</v>
       </c>
       <c r="D15" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A15)</f>
@@ -6244,7 +6298,7 @@
       </c>
       <c r="E15" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A15)</f>
-        <v>1.0625927413822234E-2</v>
+        <v>1.0158878881353695E-2</v>
       </c>
       <c r="F15" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A15)</f>
@@ -6252,11 +6306,11 @@
       </c>
       <c r="G15" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A15)</f>
-        <v>0.58515381100774277</v>
+        <v>0.55943415209646474</v>
       </c>
       <c r="H15" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A15)</f>
-        <v>6.1426594090862929E-2</v>
+        <v>5.8726669697688472E-2</v>
       </c>
       <c r="I15" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A15)</f>
@@ -6279,7 +6333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2029</v>
       </c>
@@ -6289,7 +6343,7 @@
       </c>
       <c r="C16" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A16)</f>
-        <v>2.5837015287033666E-3</v>
+        <v>2.4701383581373637E-3</v>
       </c>
       <c r="D16" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A16)</f>
@@ -6297,7 +6351,7 @@
       </c>
       <c r="E16" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A16)</f>
-        <v>1.0771488063326673E-2</v>
+        <v>1.0298041605755814E-2</v>
       </c>
       <c r="F16" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A16)</f>
@@ -6305,11 +6359,11 @@
       </c>
       <c r="G16" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A16)</f>
-        <v>0.59461525322553044</v>
+        <v>0.56847972918260226</v>
       </c>
       <c r="H16" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A16)</f>
-        <v>6.2372738312641562E-2</v>
+        <v>5.9631227406302223E-2</v>
       </c>
       <c r="I16" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A16)</f>
@@ -6332,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2030</v>
       </c>
@@ -6342,7 +6396,7 @@
       </c>
       <c r="C17" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A17)</f>
-        <v>2.6200916910794625E-3</v>
+        <v>2.5049290392378937E-3</v>
       </c>
       <c r="D17" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A17)</f>
@@ -6350,7 +6404,7 @@
       </c>
       <c r="E17" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A17)</f>
-        <v>1.0917048712831057E-2</v>
+        <v>1.0437204330157934E-2</v>
       </c>
       <c r="F17" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A17)</f>
@@ -6358,11 +6412,11 @@
       </c>
       <c r="G17" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A17)</f>
-        <v>0.6040766954433181</v>
+        <v>0.57752530626873622</v>
       </c>
       <c r="H17" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A17)</f>
-        <v>6.3318882534420196E-2</v>
+        <v>6.0535785114915752E-2</v>
       </c>
       <c r="I17" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A17)</f>
@@ -6385,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>2031</v>
       </c>
@@ -6395,7 +6449,7 @@
       </c>
       <c r="C18" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A18)</f>
-        <v>2.6564818534555723E-3</v>
+        <v>2.5397197203384098E-3</v>
       </c>
       <c r="D18" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A18)</f>
@@ -6403,7 +6457,7 @@
       </c>
       <c r="E18" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A18)</f>
-        <v>1.1062609362335496E-2</v>
+        <v>1.0576367054560054E-2</v>
       </c>
       <c r="F18" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A18)</f>
@@ -6411,11 +6465,11 @@
       </c>
       <c r="G18" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A18)</f>
-        <v>0.61353813766110576</v>
+        <v>0.58657088335487373</v>
       </c>
       <c r="H18" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A18)</f>
-        <v>6.4265026756199051E-2</v>
+        <v>6.1440342823529503E-2</v>
       </c>
       <c r="I18" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A18)</f>
@@ -6438,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>2032</v>
       </c>
@@ -6448,7 +6502,7 @@
       </c>
       <c r="C19" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A19)</f>
-        <v>2.6928720158316682E-3</v>
+        <v>2.5745104014389397E-3</v>
       </c>
       <c r="D19" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A19)</f>
@@ -6456,7 +6510,7 @@
       </c>
       <c r="E19" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A19)</f>
-        <v>1.120817001183988E-2</v>
+        <v>1.0715529778962118E-2</v>
       </c>
       <c r="F19" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A19)</f>
@@ -6464,11 +6518,11 @@
       </c>
       <c r="G19" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A19)</f>
-        <v>0.62299957987888988</v>
+        <v>0.59561646044101124</v>
       </c>
       <c r="H19" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A19)</f>
-        <v>6.5211170977977684E-2</v>
+        <v>6.2344900532143255E-2</v>
       </c>
       <c r="I19" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A19)</f>
@@ -6491,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>2033</v>
       </c>
@@ -6501,7 +6555,7 @@
       </c>
       <c r="C20" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A20)</f>
-        <v>2.7292621782077781E-3</v>
+        <v>2.6093010825394697E-3</v>
       </c>
       <c r="D20" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A20)</f>
@@ -6509,7 +6563,7 @@
       </c>
       <c r="E20" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A20)</f>
-        <v>1.1353730661344319E-2</v>
+        <v>1.0854692503364238E-2</v>
       </c>
       <c r="F20" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A20)</f>
@@ -6517,11 +6571,11 @@
       </c>
       <c r="G20" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A20)</f>
-        <v>0.63246102209667754</v>
+        <v>0.60466203752714875</v>
       </c>
       <c r="H20" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A20)</f>
-        <v>6.6157315199756317E-2</v>
+        <v>6.3249458240757006E-2</v>
       </c>
       <c r="I20" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A20)</f>
@@ -6544,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>2034</v>
       </c>
@@ -6554,7 +6608,7 @@
       </c>
       <c r="C21" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A21)</f>
-        <v>2.765652340583874E-3</v>
+        <v>2.6440917636399996E-3</v>
       </c>
       <c r="D21" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A21)</f>
@@ -6562,7 +6616,7 @@
       </c>
       <c r="E21" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A21)</f>
-        <v>1.1499291310848703E-2</v>
+        <v>1.0993855227766358E-2</v>
       </c>
       <c r="F21" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A21)</f>
@@ -6570,11 +6624,11 @@
       </c>
       <c r="G21" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A21)</f>
-        <v>0.6419224643144652</v>
+        <v>0.61370761461328627</v>
       </c>
       <c r="H21" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A21)</f>
-        <v>6.710345942153495E-2</v>
+        <v>6.4154015949370535E-2</v>
       </c>
       <c r="I21" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A21)</f>
@@ -6597,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>2035</v>
       </c>
@@ -6607,7 +6661,7 @@
       </c>
       <c r="C22" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A22)</f>
-        <v>2.8020425029599838E-3</v>
+        <v>2.6788824447405157E-3</v>
       </c>
       <c r="D22" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A22)</f>
@@ -6615,7 +6669,7 @@
       </c>
       <c r="E22" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A22)</f>
-        <v>1.1644851960353142E-2</v>
+        <v>1.1133017952168422E-2</v>
       </c>
       <c r="F22" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A22)</f>
@@ -6623,11 +6677,11 @@
       </c>
       <c r="G22" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A22)</f>
-        <v>0.65138390653225287</v>
+        <v>0.62275319169942023</v>
       </c>
       <c r="H22" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A22)</f>
-        <v>6.8049603643313805E-2</v>
+        <v>6.5058573657984287E-2</v>
       </c>
       <c r="I22" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A22)</f>
@@ -6650,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>2036</v>
       </c>
@@ -6660,7 +6714,7 @@
       </c>
       <c r="C23" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A23)</f>
-        <v>2.8384326653360797E-3</v>
+        <v>2.7136731258410457E-3</v>
       </c>
       <c r="D23" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A23)</f>
@@ -6668,7 +6722,7 @@
       </c>
       <c r="E23" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A23)</f>
-        <v>1.1790412609857526E-2</v>
+        <v>1.1272180676570542E-2</v>
       </c>
       <c r="F23" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A23)</f>
@@ -6676,11 +6730,11 @@
       </c>
       <c r="G23" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A23)</f>
-        <v>0.66084534875003698</v>
+        <v>0.63179876878555774</v>
       </c>
       <c r="H23" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A23)</f>
-        <v>6.8995747865092438E-2</v>
+        <v>6.5963131366598038E-2</v>
       </c>
       <c r="I23" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A23)</f>
@@ -6703,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>2037</v>
       </c>
@@ -6713,7 +6767,7 @@
       </c>
       <c r="C24" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A24)</f>
-        <v>2.8748228277121896E-3</v>
+        <v>2.7484638069415757E-3</v>
       </c>
       <c r="D24" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A24)</f>
@@ -6721,7 +6775,7 @@
       </c>
       <c r="E24" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A24)</f>
-        <v>1.1935973259361965E-2</v>
+        <v>1.1411343400972662E-2</v>
       </c>
       <c r="F24" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A24)</f>
@@ -6729,11 +6783,11 @@
       </c>
       <c r="G24" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A24)</f>
-        <v>0.67030679096782464</v>
+        <v>0.64084434587169525</v>
       </c>
       <c r="H24" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A24)</f>
-        <v>6.9941892086871071E-2</v>
+        <v>6.6867689075211567E-2</v>
       </c>
       <c r="I24" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A24)</f>
@@ -6756,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>2038</v>
       </c>
@@ -6766,7 +6820,7 @@
       </c>
       <c r="C25" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A25)</f>
-        <v>2.9112129900882994E-3</v>
+        <v>2.7832544880421056E-3</v>
       </c>
       <c r="D25" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A25)</f>
@@ -6774,7 +6828,7 @@
       </c>
       <c r="E25" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A25)</f>
-        <v>1.2081533908866404E-2</v>
+        <v>1.1550506125374782E-2</v>
       </c>
       <c r="F25" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A25)</f>
@@ -6782,11 +6836,11 @@
       </c>
       <c r="G25" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A25)</f>
-        <v>0.6797682331856123</v>
+        <v>0.64988992295783277</v>
       </c>
       <c r="H25" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A25)</f>
-        <v>7.0888036308649705E-2</v>
+        <v>6.7772246783825318E-2</v>
       </c>
       <c r="I25" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A25)</f>
@@ -6809,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>2039</v>
       </c>
@@ -6819,7 +6873,7 @@
       </c>
       <c r="C26" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A26)</f>
-        <v>2.9476031524643953E-3</v>
+        <v>2.8180451691426217E-3</v>
       </c>
       <c r="D26" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A26)</f>
@@ -6827,7 +6881,7 @@
       </c>
       <c r="E26" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A26)</f>
-        <v>1.2227094558370788E-2</v>
+        <v>1.1689668849776846E-2</v>
       </c>
       <c r="F26" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A26)</f>
@@ -6835,11 +6889,11 @@
       </c>
       <c r="G26" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A26)</f>
-        <v>0.68922967540339997</v>
+        <v>0.65893550004397028</v>
       </c>
       <c r="H26" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A26)</f>
-        <v>7.183418053042856E-2</v>
+        <v>6.867680449243907E-2</v>
       </c>
       <c r="I26" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A26)</f>
@@ -6862,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>2040</v>
       </c>
@@ -6872,7 +6926,7 @@
       </c>
       <c r="C27" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A27)</f>
-        <v>2.9839933148405051E-3</v>
+        <v>2.8528358502431517E-3</v>
       </c>
       <c r="D27" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A27)</f>
@@ -6880,7 +6934,7 @@
       </c>
       <c r="E27" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A27)</f>
-        <v>1.2372655207875227E-2</v>
+        <v>1.1828831574178966E-2</v>
       </c>
       <c r="F27" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A27)</f>
@@ -6888,11 +6942,11 @@
       </c>
       <c r="G27" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A27)</f>
-        <v>0.69869111762118763</v>
+        <v>0.66798107713010424</v>
       </c>
       <c r="H27" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A27)</f>
-        <v>7.2780324752207193E-2</v>
+        <v>6.9581362201052599E-2</v>
       </c>
       <c r="I27" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A27)</f>
@@ -6915,7 +6969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>2041</v>
       </c>
@@ -6925,7 +6979,7 @@
       </c>
       <c r="C28" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A28)</f>
-        <v>3.0203834772166011E-3</v>
+        <v>2.8876265313436816E-3</v>
       </c>
       <c r="D28" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A28)</f>
@@ -6933,7 +6987,7 @@
       </c>
       <c r="E28" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A28)</f>
-        <v>1.2518215857379611E-2</v>
+        <v>1.1967994298581086E-2</v>
       </c>
       <c r="F28" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A28)</f>
@@ -6941,11 +6995,11 @@
       </c>
       <c r="G28" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A28)</f>
-        <v>0.70815255983897174</v>
+        <v>0.67702665421624175</v>
       </c>
       <c r="H28" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A28)</f>
-        <v>7.3726468973985826E-2</v>
+        <v>7.048591990966635E-2</v>
       </c>
       <c r="I28" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A28)</f>
@@ -6968,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>2042</v>
       </c>
@@ -6978,7 +7032,7 @@
       </c>
       <c r="C29" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A29)</f>
-        <v>3.0567736395927109E-3</v>
+        <v>2.9224172124442116E-3</v>
       </c>
       <c r="D29" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A29)</f>
@@ -6986,7 +7040,7 @@
       </c>
       <c r="E29" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A29)</f>
-        <v>1.266377650688405E-2</v>
+        <v>1.2107157022983206E-2</v>
       </c>
       <c r="F29" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A29)</f>
@@ -6994,11 +7048,11 @@
       </c>
       <c r="G29" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A29)</f>
-        <v>0.7176140020567594</v>
+        <v>0.68607223130237927</v>
       </c>
       <c r="H29" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A29)</f>
-        <v>7.4672613195764459E-2</v>
+        <v>7.1390477618280102E-2</v>
       </c>
       <c r="I29" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A29)</f>
@@ -7021,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>2043</v>
       </c>
@@ -7031,7 +7085,7 @@
       </c>
       <c r="C30" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A30)</f>
-        <v>3.0931638019688068E-3</v>
+        <v>2.9572078935447277E-3</v>
       </c>
       <c r="D30" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A30)</f>
@@ -7039,7 +7093,7 @@
       </c>
       <c r="E30" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A30)</f>
-        <v>1.2809337156388434E-2</v>
+        <v>1.224631974738527E-2</v>
       </c>
       <c r="F30" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A30)</f>
@@ -7047,11 +7101,11 @@
       </c>
       <c r="G30" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A30)</f>
-        <v>0.72707544427454707</v>
+        <v>0.69511780838851678</v>
       </c>
       <c r="H30" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A30)</f>
-        <v>7.5618757417543314E-2</v>
+        <v>7.2295035326893853E-2</v>
       </c>
       <c r="I30" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A30)</f>
@@ -7074,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>2044</v>
       </c>
@@ -7084,7 +7138,7 @@
       </c>
       <c r="C31" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A31)</f>
-        <v>3.1295539643449166E-3</v>
+        <v>2.9919985746452576E-3</v>
       </c>
       <c r="D31" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A31)</f>
@@ -7092,7 +7146,7 @@
       </c>
       <c r="E31" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A31)</f>
-        <v>1.2954897805892873E-2</v>
+        <v>1.238548247178739E-2</v>
       </c>
       <c r="F31" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A31)</f>
@@ -7100,11 +7154,11 @@
       </c>
       <c r="G31" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A31)</f>
-        <v>0.73653688649233473</v>
+        <v>0.70416338547465429</v>
       </c>
       <c r="H31" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A31)</f>
-        <v>7.6564901639321947E-2</v>
+        <v>7.3199593035507382E-2</v>
       </c>
       <c r="I31" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A31)</f>
@@ -7127,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>2045</v>
       </c>
@@ -7137,7 +7191,7 @@
       </c>
       <c r="C32" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A32)</f>
-        <v>3.1659441267210126E-3</v>
+        <v>3.0267892557457876E-3</v>
       </c>
       <c r="D32" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A32)</f>
@@ -7145,7 +7199,7 @@
       </c>
       <c r="E32" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A32)</f>
-        <v>1.3100458455397257E-2</v>
+        <v>1.252464519618951E-2</v>
       </c>
       <c r="F32" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A32)</f>
@@ -7153,11 +7207,11 @@
       </c>
       <c r="G32" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A32)</f>
-        <v>0.74599832871012239</v>
+        <v>0.7132089625607918</v>
       </c>
       <c r="H32" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A32)</f>
-        <v>7.751104586110058E-2</v>
+        <v>7.4104150744121133E-2</v>
       </c>
       <c r="I32" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A32)</f>
@@ -7180,7 +7234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>2046</v>
       </c>
@@ -7190,7 +7244,7 @@
       </c>
       <c r="C33" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A33)</f>
-        <v>3.2023342890971224E-3</v>
+        <v>3.0615799368463176E-3</v>
       </c>
       <c r="D33" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A33)</f>
@@ -7198,7 +7252,7 @@
       </c>
       <c r="E33" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A33)</f>
-        <v>1.3246019104901696E-2</v>
+        <v>1.266380792059163E-2</v>
       </c>
       <c r="F33" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A33)</f>
@@ -7206,11 +7260,11 @@
       </c>
       <c r="G33" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A33)</f>
-        <v>0.7554597709279065</v>
+        <v>0.72225453964692576</v>
       </c>
       <c r="H33" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A33)</f>
-        <v>7.8457190082879213E-2</v>
+        <v>7.5008708452734885E-2</v>
       </c>
       <c r="I33" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A33)</f>
@@ -7233,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>2047</v>
       </c>
@@ -7243,7 +7297,7 @@
       </c>
       <c r="C34" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A34)</f>
-        <v>3.2387244514732183E-3</v>
+        <v>3.0963706179468337E-3</v>
       </c>
       <c r="D34" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A34)</f>
@@ -7251,7 +7305,7 @@
       </c>
       <c r="E34" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A34)</f>
-        <v>1.339157975440608E-2</v>
+        <v>1.2802970644993694E-2</v>
       </c>
       <c r="F34" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A34)</f>
@@ -7259,11 +7313,11 @@
       </c>
       <c r="G34" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A34)</f>
-        <v>0.76492121314569417</v>
+        <v>0.73130011673306328</v>
       </c>
       <c r="H34" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A34)</f>
-        <v>7.9403334304658069E-2</v>
+        <v>7.5913266161348414E-2</v>
       </c>
       <c r="I34" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A34)</f>
@@ -7286,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>2048</v>
       </c>
@@ -7296,7 +7350,7 @@
       </c>
       <c r="C35" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A35)</f>
-        <v>3.2751146138493281E-3</v>
+        <v>3.1311612990473636E-3</v>
       </c>
       <c r="D35" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A35)</f>
@@ -7304,7 +7358,7 @@
       </c>
       <c r="E35" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A35)</f>
-        <v>1.3537140403910519E-2</v>
+        <v>1.2942133369395814E-2</v>
       </c>
       <c r="F35" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A35)</f>
@@ -7312,11 +7366,11 @@
       </c>
       <c r="G35" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A35)</f>
-        <v>0.77438265536348183</v>
+        <v>0.74034569381920079</v>
       </c>
       <c r="H35" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A35)</f>
-        <v>8.0349478526436702E-2</v>
+        <v>7.6817823869962165E-2</v>
       </c>
       <c r="I35" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A35)</f>
@@ -7339,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>2049</v>
       </c>
@@ -7349,7 +7403,7 @@
       </c>
       <c r="C36" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A36)</f>
-        <v>3.3115047762254379E-3</v>
+        <v>3.1659519801478936E-3</v>
       </c>
       <c r="D36" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A36)</f>
@@ -7357,7 +7411,7 @@
       </c>
       <c r="E36" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A36)</f>
-        <v>1.3682701053414958E-2</v>
+        <v>1.3081296093797934E-2</v>
       </c>
       <c r="F36" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A36)</f>
@@ -7365,11 +7419,11 @@
       </c>
       <c r="G36" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A36)</f>
-        <v>0.78384409758126949</v>
+        <v>0.7493912709053383</v>
       </c>
       <c r="H36" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A36)</f>
-        <v>8.1295622748215335E-2</v>
+        <v>7.7722381578575916E-2</v>
       </c>
       <c r="I36" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A36)</f>
@@ -7392,7 +7446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>2050</v>
       </c>
@@ -7402,7 +7456,7 @@
       </c>
       <c r="C37" s="11">
         <f>TREND(Calculations!C$139:C$140,Calculations!$A$139:$A$140,$A37)</f>
-        <v>3.3478949386015339E-3</v>
+        <v>3.2007426612484097E-3</v>
       </c>
       <c r="D37" s="11">
         <f>TREND(Calculations!D$139:D$140,Calculations!$A$139:$A$140,$A37)</f>
@@ -7410,7 +7464,7 @@
       </c>
       <c r="E37" s="11">
         <f>TREND(Calculations!E$139:E$140,Calculations!$A$139:$A$140,$A37)</f>
-        <v>1.3828261702919342E-2</v>
+        <v>1.3220458818199998E-2</v>
       </c>
       <c r="F37" s="11">
         <f>TREND(Calculations!F$139:F$140,Calculations!$A$139:$A$140,$A37)</f>
@@ -7418,11 +7472,11 @@
       </c>
       <c r="G37" s="11">
         <f>TREND(Calculations!G$139:G$140,Calculations!$A$139:$A$140,$A37)</f>
-        <v>0.79330553979905716</v>
+        <v>0.75843684799147582</v>
       </c>
       <c r="H37" s="11">
         <f>TREND(Calculations!H$139:H$140,Calculations!$A$139:$A$140,$A37)</f>
-        <v>8.224176696999419E-2</v>
+        <v>7.8626939287189446E-2</v>
       </c>
       <c r="I37" s="11">
         <f>TREND(Calculations!I$139:I$140,Calculations!$A$139:$A$140,$A37)</f>
@@ -7456,17 +7510,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:M37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -7507,7 +7563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -7517,7 +7573,7 @@
       </c>
       <c r="C2" s="11">
         <f>TREND(Calculations!C$144:C$145,Calculations!$A$144:$A$145,$A2)</f>
-        <v>2.0378490930618026E-3</v>
+        <v>1.9482781416294837E-3</v>
       </c>
       <c r="D2" s="11">
         <f>TREND(Calculations!D$144:D$145,Calculations!$A$144:$A$145,$A2)</f>
@@ -7525,7 +7581,7 @@
       </c>
       <c r="E2" s="11">
         <f>TREND(Calculations!E$144:E$145,Calculations!$A$144:$A$145,$A2)</f>
-        <v>1.2372655207875227E-2</v>
+        <v>1.1828831574178911E-2</v>
       </c>
       <c r="F2" s="11">
         <f>TREND(Calculations!F$144:F$145,Calculations!$A$144:$A$145,$A2)</f>
@@ -7533,11 +7589,11 @@
       </c>
       <c r="G2" s="11">
         <f>TREND(Calculations!G$144:G$145,Calculations!$A$144:$A$145,$A2)</f>
-        <v>0.37845768871147634</v>
+        <v>0.36182308344547387</v>
       </c>
       <c r="H2" s="11">
         <f>TREND(Calculations!H$144:H$145,Calculations!$A$144:$A$145,$A2)</f>
-        <v>6.8413505267074681E-2</v>
+        <v>6.5406480468989558E-2</v>
       </c>
       <c r="I2" s="11">
         <f>TREND(Calculations!I$144:I$145,Calculations!$A$144:$A$145,$A2)</f>
@@ -7560,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -7570,7 +7626,7 @@
       </c>
       <c r="C3" s="11">
         <f>TREND(Calculations!C$144:C$145,Calculations!$A$144:$A$145,$A3)</f>
-        <v>2.0815172879131288E-3</v>
+        <v>1.9900269589501057E-3</v>
       </c>
       <c r="D3" s="11">
         <f>TREND(Calculations!D$144:D$145,Calculations!$A$144:$A$145,$A3)</f>
@@ -7578,7 +7634,7 @@
       </c>
       <c r="E3" s="11">
         <f>TREND(Calculations!E$144:E$145,Calculations!$A$144:$A$145,$A3)</f>
-        <v>1.2663776506884106E-2</v>
+        <v>1.2107157022983039E-2</v>
       </c>
       <c r="F3" s="11">
         <f>TREND(Calculations!F$144:F$145,Calculations!$A$144:$A$145,$A3)</f>
@@ -7586,11 +7642,11 @@
       </c>
       <c r="G3" s="11">
         <f>TREND(Calculations!G$144:G$145,Calculations!$A$144:$A$145,$A3)</f>
-        <v>0.38573572118669652</v>
+        <v>0.36878121966557842</v>
       </c>
       <c r="H3" s="11">
         <f>TREND(Calculations!H$144:H$145,Calculations!$A$144:$A$145,$A3)</f>
-        <v>6.9286869164101095E-2</v>
+        <v>6.6241456815402167E-2</v>
       </c>
       <c r="I3" s="11">
         <f>TREND(Calculations!I$144:I$145,Calculations!$A$144:$A$145,$A3)</f>
@@ -7613,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -7623,7 +7679,7 @@
       </c>
       <c r="C4" s="11">
         <f>TREND(Calculations!C$144:C$145,Calculations!$A$144:$A$145,$A4)</f>
-        <v>2.1251854827644412E-3</v>
+        <v>2.0317757762707417E-3</v>
       </c>
       <c r="D4" s="11">
         <f>TREND(Calculations!D$144:D$145,Calculations!$A$144:$A$145,$A4)</f>
@@ -7631,7 +7687,7 @@
       </c>
       <c r="E4" s="11">
         <f>TREND(Calculations!E$144:E$145,Calculations!$A$144:$A$145,$A4)</f>
-        <v>1.2954897805892873E-2</v>
+        <v>1.2385482471787279E-2</v>
       </c>
       <c r="F4" s="11">
         <f>TREND(Calculations!F$144:F$145,Calculations!$A$144:$A$145,$A4)</f>
@@ -7639,11 +7695,11 @@
       </c>
       <c r="G4" s="11">
         <f>TREND(Calculations!G$144:G$145,Calculations!$A$144:$A$145,$A4)</f>
-        <v>0.39301375366191849</v>
+        <v>0.37573935588568297</v>
       </c>
       <c r="H4" s="11">
         <f>TREND(Calculations!H$144:H$145,Calculations!$A$144:$A$145,$A4)</f>
-        <v>7.0160233061127508E-2</v>
+        <v>6.7076433161814775E-2</v>
       </c>
       <c r="I4" s="11">
         <f>TREND(Calculations!I$144:I$145,Calculations!$A$144:$A$145,$A4)</f>
@@ -7666,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -7676,7 +7732,7 @@
       </c>
       <c r="C5" s="11">
         <f>TREND(Calculations!C$144:C$145,Calculations!$A$144:$A$145,$A5)</f>
-        <v>2.1688536776157674E-3</v>
+        <v>2.0735245935913776E-3</v>
       </c>
       <c r="D5" s="11">
         <f>TREND(Calculations!D$144:D$145,Calculations!$A$144:$A$145,$A5)</f>
@@ -7684,7 +7740,7 @@
       </c>
       <c r="E5" s="11">
         <f>TREND(Calculations!E$144:E$145,Calculations!$A$144:$A$145,$A5)</f>
-        <v>1.3246019104901752E-2</v>
+        <v>1.2663807920591519E-2</v>
       </c>
       <c r="F5" s="11">
         <f>TREND(Calculations!F$144:F$145,Calculations!$A$144:$A$145,$A5)</f>
@@ -7692,11 +7748,11 @@
       </c>
       <c r="G5" s="11">
         <f>TREND(Calculations!G$144:G$145,Calculations!$A$144:$A$145,$A5)</f>
-        <v>0.40029178613713867</v>
+        <v>0.38269749210578929</v>
       </c>
       <c r="H5" s="11">
         <f>TREND(Calculations!H$144:H$145,Calculations!$A$144:$A$145,$A5)</f>
-        <v>7.1033596958154144E-2</v>
+        <v>6.7911409508227383E-2</v>
       </c>
       <c r="I5" s="11">
         <f>TREND(Calculations!I$144:I$145,Calculations!$A$144:$A$145,$A5)</f>
@@ -7719,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -7729,7 +7785,7 @@
       </c>
       <c r="C6" s="11">
         <f>TREND(Calculations!C$144:C$145,Calculations!$A$144:$A$145,$A6)</f>
-        <v>2.2125218724670936E-3</v>
+        <v>2.1152734109119997E-3</v>
       </c>
       <c r="D6" s="11">
         <f>TREND(Calculations!D$144:D$145,Calculations!$A$144:$A$145,$A6)</f>
@@ -7737,7 +7793,7 @@
       </c>
       <c r="E6" s="11">
         <f>TREND(Calculations!E$144:E$145,Calculations!$A$144:$A$145,$A6)</f>
-        <v>1.3537140403910519E-2</v>
+        <v>1.2942133369395759E-2</v>
       </c>
       <c r="F6" s="11">
         <f>TREND(Calculations!F$144:F$145,Calculations!$A$144:$A$145,$A6)</f>
@@ -7745,11 +7801,11 @@
       </c>
       <c r="G6" s="11">
         <f>TREND(Calculations!G$144:G$145,Calculations!$A$144:$A$145,$A6)</f>
-        <v>0.40756981861235886</v>
+        <v>0.38965562832589384</v>
       </c>
       <c r="H6" s="11">
         <f>TREND(Calculations!H$144:H$145,Calculations!$A$144:$A$145,$A6)</f>
-        <v>7.1906960855180557E-2</v>
+        <v>6.8746385854639991E-2</v>
       </c>
       <c r="I6" s="11">
         <f>TREND(Calculations!I$144:I$145,Calculations!$A$144:$A$145,$A6)</f>
@@ -7772,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>2020</v>
       </c>
@@ -7782,7 +7838,7 @@
       </c>
       <c r="C7" s="14">
         <f>TREND(Calculations!C$144:C$145,Calculations!$A$144:$A$145,$A7)</f>
-        <v>2.2561900673184199E-3</v>
+        <v>2.1570222282326357E-3</v>
       </c>
       <c r="D7" s="14">
         <f>TREND(Calculations!D$144:D$145,Calculations!$A$144:$A$145,$A7)</f>
@@ -7790,7 +7846,7 @@
       </c>
       <c r="E7" s="14">
         <f>TREND(Calculations!E$144:E$145,Calculations!$A$144:$A$145,$A7)</f>
-        <v>1.3828261702919398E-2</v>
+        <v>1.3220458818199887E-2</v>
       </c>
       <c r="F7" s="14">
         <f>TREND(Calculations!F$144:F$145,Calculations!$A$144:$A$145,$A7)</f>
@@ -7798,11 +7854,11 @@
       </c>
       <c r="G7" s="14">
         <f>TREND(Calculations!G$144:G$145,Calculations!$A$144:$A$145,$A7)</f>
-        <v>0.41484785108758082</v>
+        <v>0.39661376454600017</v>
       </c>
       <c r="H7" s="14">
         <f>TREND(Calculations!H$144:H$145,Calculations!$A$144:$A$145,$A7)</f>
-        <v>7.2780324752206971E-2</v>
+        <v>6.9581362201052599E-2</v>
       </c>
       <c r="I7" s="14">
         <f>TREND(Calculations!I$144:I$145,Calculations!$A$144:$A$145,$A7)</f>
@@ -7825,7 +7881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -7835,7 +7891,7 @@
       </c>
       <c r="C8" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A8)</f>
-        <v>2.2925802296945297E-3</v>
+        <v>2.1918129093331518E-3</v>
       </c>
       <c r="D8" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A8)</f>
@@ -7843,7 +7899,7 @@
       </c>
       <c r="E8" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A8)</f>
-        <v>1.4046602677175946E-2</v>
+        <v>1.342920290480315E-2</v>
       </c>
       <c r="F8" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A8)</f>
@@ -7851,11 +7907,11 @@
       </c>
       <c r="G8" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A8)</f>
-        <v>0.4213980803152797</v>
+        <v>0.40287608714409373</v>
       </c>
       <c r="H8" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A8)</f>
-        <v>7.4235931247251141E-2</v>
+        <v>7.0972989445073686E-2</v>
       </c>
       <c r="I8" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A8)</f>
@@ -7878,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -7888,7 +7944,7 @@
       </c>
       <c r="C9" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A9)</f>
-        <v>2.3289703920706395E-3</v>
+        <v>2.2266035904336817E-3</v>
       </c>
       <c r="D9" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A9)</f>
@@ -7896,7 +7952,7 @@
       </c>
       <c r="E9" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A9)</f>
-        <v>1.4264943651432604E-2</v>
+        <v>1.3637946991406302E-2</v>
       </c>
       <c r="F9" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A9)</f>
@@ -7904,11 +7960,11 @@
       </c>
       <c r="G9" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A9)</f>
-        <v>0.42794830954297858</v>
+        <v>0.40913840974218907</v>
       </c>
       <c r="H9" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A9)</f>
-        <v>7.5691537742295534E-2</v>
+        <v>7.2364616689094774E-2</v>
       </c>
       <c r="I9" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A9)</f>
@@ -7931,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -7941,7 +7997,7 @@
       </c>
       <c r="C10" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A10)</f>
-        <v>2.3653605544467354E-3</v>
+        <v>2.2613942715341978E-3</v>
       </c>
       <c r="D10" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A10)</f>
@@ -7949,7 +8005,7 @@
       </c>
       <c r="E10" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A10)</f>
-        <v>1.4483284625689208E-2</v>
+        <v>1.3846691078009454E-2</v>
       </c>
       <c r="F10" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A10)</f>
@@ -7957,11 +8013,11 @@
       </c>
       <c r="G10" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A10)</f>
-        <v>0.43449853877067568</v>
+        <v>0.41540073234028441</v>
       </c>
       <c r="H10" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A10)</f>
-        <v>7.7147144237339482E-2</v>
+        <v>7.3756243933115861E-2</v>
       </c>
       <c r="I10" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A10)</f>
@@ -7984,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -7994,7 +8050,7 @@
       </c>
       <c r="C11" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A11)</f>
-        <v>2.4017507168228452E-3</v>
+        <v>2.2961849526347278E-3</v>
       </c>
       <c r="D11" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A11)</f>
@@ -8002,7 +8058,7 @@
       </c>
       <c r="E11" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A11)</f>
-        <v>1.4701625599945811E-2</v>
+        <v>1.4055435164612662E-2</v>
       </c>
       <c r="F11" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A11)</f>
@@ -8010,11 +8066,11 @@
       </c>
       <c r="G11" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A11)</f>
-        <v>0.44104876799837456</v>
+        <v>0.42166305493837797</v>
       </c>
       <c r="H11" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A11)</f>
-        <v>7.8602750732383875E-2</v>
+        <v>7.5147871177136949E-2</v>
       </c>
       <c r="I11" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A11)</f>
@@ -8037,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2025</v>
       </c>
@@ -8047,7 +8103,7 @@
       </c>
       <c r="C12" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A12)</f>
-        <v>2.4381408791989412E-3</v>
+        <v>2.3309756337352577E-3</v>
       </c>
       <c r="D12" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A12)</f>
@@ -8055,7 +8111,7 @@
       </c>
       <c r="E12" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A12)</f>
-        <v>1.491996657420247E-2</v>
+        <v>1.4264179251215814E-2</v>
       </c>
       <c r="F12" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A12)</f>
@@ -8063,11 +8119,11 @@
       </c>
       <c r="G12" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A12)</f>
-        <v>0.44759899722607344</v>
+        <v>0.42792537753647331</v>
       </c>
       <c r="H12" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A12)</f>
-        <v>8.0058357227427823E-2</v>
+        <v>7.6539498421158036E-2</v>
       </c>
       <c r="I12" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A12)</f>
@@ -8090,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2026</v>
       </c>
@@ -8100,7 +8156,7 @@
       </c>
       <c r="C13" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A13)</f>
-        <v>2.474531041575051E-3</v>
+        <v>2.3657663148357877E-3</v>
       </c>
       <c r="D13" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A13)</f>
@@ -8108,7 +8164,7 @@
       </c>
       <c r="E13" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A13)</f>
-        <v>1.5138307548459073E-2</v>
+        <v>1.4472923337818966E-2</v>
       </c>
       <c r="F13" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A13)</f>
@@ -8116,11 +8172,11 @@
       </c>
       <c r="G13" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A13)</f>
-        <v>0.45414922645377231</v>
+        <v>0.43418770013456864</v>
       </c>
       <c r="H13" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A13)</f>
-        <v>8.1513963722471772E-2</v>
+        <v>7.7931125665179124E-2</v>
       </c>
       <c r="I13" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A13)</f>
@@ -8143,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2027</v>
       </c>
@@ -8153,7 +8209,7 @@
       </c>
       <c r="C14" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A14)</f>
-        <v>2.5109212039511469E-3</v>
+        <v>2.4005569959363038E-3</v>
       </c>
       <c r="D14" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A14)</f>
@@ -8161,7 +8217,7 @@
       </c>
       <c r="E14" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A14)</f>
-        <v>1.5356648522715677E-2</v>
+        <v>1.4681667424422118E-2</v>
       </c>
       <c r="F14" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A14)</f>
@@ -8169,11 +8225,11 @@
       </c>
       <c r="G14" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A14)</f>
-        <v>0.46069945568147119</v>
+        <v>0.44045002273266221</v>
       </c>
       <c r="H14" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A14)</f>
-        <v>8.2969570217516164E-2</v>
+        <v>7.9322752909200211E-2</v>
       </c>
       <c r="I14" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A14)</f>
@@ -8196,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2028</v>
       </c>
@@ -8206,7 +8262,7 @@
       </c>
       <c r="C15" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A15)</f>
-        <v>2.5473113663272567E-3</v>
+        <v>2.4353476770368337E-3</v>
       </c>
       <c r="D15" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A15)</f>
@@ -8214,7 +8270,7 @@
       </c>
       <c r="E15" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A15)</f>
-        <v>1.5574989496972336E-2</v>
+        <v>1.489041151102527E-2</v>
       </c>
       <c r="F15" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A15)</f>
@@ -8222,11 +8278,11 @@
       </c>
       <c r="G15" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A15)</f>
-        <v>0.46724968490917007</v>
+        <v>0.44671234533075754</v>
       </c>
       <c r="H15" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A15)</f>
-        <v>8.4425176712560113E-2</v>
+        <v>8.0714380153221299E-2</v>
       </c>
       <c r="I15" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A15)</f>
@@ -8249,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2029</v>
       </c>
@@ -8259,7 +8315,7 @@
       </c>
       <c r="C16" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A16)</f>
-        <v>2.5837015287033666E-3</v>
+        <v>2.4701383581373637E-3</v>
       </c>
       <c r="D16" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A16)</f>
@@ -8267,7 +8323,7 @@
       </c>
       <c r="E16" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A16)</f>
-        <v>1.5793330471228939E-2</v>
+        <v>1.5099155597628422E-2</v>
       </c>
       <c r="F16" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A16)</f>
@@ -8275,11 +8331,11 @@
       </c>
       <c r="G16" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A16)</f>
-        <v>0.47379991413686895</v>
+        <v>0.4529746679288511</v>
       </c>
       <c r="H16" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A16)</f>
-        <v>8.5880783207604505E-2</v>
+        <v>8.2106007397242387E-2</v>
       </c>
       <c r="I16" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A16)</f>
@@ -8302,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2030</v>
       </c>
@@ -8312,7 +8368,7 @@
       </c>
       <c r="C17" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A17)</f>
-        <v>2.6200916910794625E-3</v>
+        <v>2.5049290392378937E-3</v>
       </c>
       <c r="D17" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A17)</f>
@@ -8320,7 +8376,7 @@
       </c>
       <c r="E17" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A17)</f>
-        <v>1.6011671445485542E-2</v>
+        <v>1.5307899684231574E-2</v>
       </c>
       <c r="F17" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A17)</f>
@@ -8328,11 +8384,11 @@
       </c>
       <c r="G17" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A17)</f>
-        <v>0.48035014336456605</v>
+        <v>0.45923699052694644</v>
       </c>
       <c r="H17" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A17)</f>
-        <v>8.7336389702648454E-2</v>
+        <v>8.349763464126303E-2</v>
       </c>
       <c r="I17" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A17)</f>
@@ -8355,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>2031</v>
       </c>
@@ -8365,7 +8421,7 @@
       </c>
       <c r="C18" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A18)</f>
-        <v>2.6564818534555723E-3</v>
+        <v>2.5397197203384098E-3</v>
       </c>
       <c r="D18" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A18)</f>
@@ -8373,7 +8429,7 @@
       </c>
       <c r="E18" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A18)</f>
-        <v>1.6230012419742146E-2</v>
+        <v>1.5516643770834726E-2</v>
       </c>
       <c r="F18" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A18)</f>
@@ -8381,11 +8437,11 @@
       </c>
       <c r="G18" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A18)</f>
-        <v>0.48690037259226493</v>
+        <v>0.46549931312504178</v>
       </c>
       <c r="H18" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A18)</f>
-        <v>8.8791996197692846E-2</v>
+        <v>8.4889261885284117E-2</v>
       </c>
       <c r="I18" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A18)</f>
@@ -8408,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>2032</v>
       </c>
@@ -8418,7 +8474,7 @@
       </c>
       <c r="C19" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A19)</f>
-        <v>2.6928720158316682E-3</v>
+        <v>2.5745104014389397E-3</v>
       </c>
       <c r="D19" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A19)</f>
@@ -8426,7 +8482,7 @@
       </c>
       <c r="E19" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A19)</f>
-        <v>1.6448353393998805E-2</v>
+        <v>1.5725387857437878E-2</v>
       </c>
       <c r="F19" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A19)</f>
@@ -8434,11 +8490,11 @@
       </c>
       <c r="G19" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A19)</f>
-        <v>0.49345060181996381</v>
+        <v>0.47176163572313534</v>
       </c>
       <c r="H19" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A19)</f>
-        <v>9.0247602692736795E-2</v>
+        <v>8.6280889129305205E-2</v>
       </c>
       <c r="I19" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A19)</f>
@@ -8461,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>2033</v>
       </c>
@@ -8471,7 +8527,7 @@
       </c>
       <c r="C20" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A20)</f>
-        <v>2.7292621782077781E-3</v>
+        <v>2.6093010825394697E-3</v>
       </c>
       <c r="D20" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A20)</f>
@@ -8479,7 +8535,7 @@
       </c>
       <c r="E20" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A20)</f>
-        <v>1.6666694368255408E-2</v>
+        <v>1.593413194404103E-2</v>
       </c>
       <c r="F20" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A20)</f>
@@ -8487,11 +8543,11 @@
       </c>
       <c r="G20" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A20)</f>
-        <v>0.50000083104766269</v>
+        <v>0.47802395832123068</v>
       </c>
       <c r="H20" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A20)</f>
-        <v>9.1703209187780743E-2</v>
+        <v>8.7672516373326292E-2</v>
       </c>
       <c r="I20" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A20)</f>
@@ -8514,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>2034</v>
       </c>
@@ -8524,7 +8580,7 @@
       </c>
       <c r="C21" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A21)</f>
-        <v>2.765652340583874E-3</v>
+        <v>2.6440917636399996E-3</v>
       </c>
       <c r="D21" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A21)</f>
@@ -8532,7 +8588,7 @@
       </c>
       <c r="E21" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A21)</f>
-        <v>1.6885035342512011E-2</v>
+        <v>1.6142876030644238E-2</v>
       </c>
       <c r="F21" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A21)</f>
@@ -8540,11 +8596,11 @@
       </c>
       <c r="G21" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A21)</f>
-        <v>0.50655106027536156</v>
+        <v>0.48428628091932602</v>
       </c>
       <c r="H21" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A21)</f>
-        <v>9.3158815682825136E-2</v>
+        <v>8.906414361734738E-2</v>
       </c>
       <c r="I21" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A21)</f>
@@ -8567,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>2035</v>
       </c>
@@ -8577,7 +8633,7 @@
       </c>
       <c r="C22" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A22)</f>
-        <v>2.8020425029599838E-3</v>
+        <v>2.6788824447405157E-3</v>
       </c>
       <c r="D22" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A22)</f>
@@ -8585,7 +8641,7 @@
       </c>
       <c r="E22" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A22)</f>
-        <v>1.710337631676867E-2</v>
+        <v>1.635162011724739E-2</v>
       </c>
       <c r="F22" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A22)</f>
@@ -8593,11 +8649,11 @@
       </c>
       <c r="G22" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A22)</f>
-        <v>0.51310128950306044</v>
+        <v>0.49054860351741958</v>
       </c>
       <c r="H22" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A22)</f>
-        <v>9.4614422177869084E-2</v>
+        <v>9.0455770861368467E-2</v>
       </c>
       <c r="I22" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A22)</f>
@@ -8620,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>2036</v>
       </c>
@@ -8630,7 +8686,7 @@
       </c>
       <c r="C23" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A23)</f>
-        <v>2.8384326653360797E-3</v>
+        <v>2.7136731258410457E-3</v>
       </c>
       <c r="D23" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A23)</f>
@@ -8638,7 +8694,7 @@
       </c>
       <c r="E23" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A23)</f>
-        <v>1.7321717291025274E-2</v>
+        <v>1.6560364203850542E-2</v>
       </c>
       <c r="F23" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A23)</f>
@@ -8646,11 +8702,11 @@
       </c>
       <c r="G23" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A23)</f>
-        <v>0.51965151873075932</v>
+        <v>0.49681092611551492</v>
       </c>
       <c r="H23" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A23)</f>
-        <v>9.6070028672913477E-2</v>
+        <v>9.1847398105389555E-2</v>
       </c>
       <c r="I23" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A23)</f>
@@ -8673,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>2037</v>
       </c>
@@ -8683,7 +8739,7 @@
       </c>
       <c r="C24" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A24)</f>
-        <v>2.8748228277121896E-3</v>
+        <v>2.7484638069415757E-3</v>
       </c>
       <c r="D24" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A24)</f>
@@ -8691,7 +8747,7 @@
       </c>
       <c r="E24" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A24)</f>
-        <v>1.7540058265281877E-2</v>
+        <v>1.6769108290453694E-2</v>
       </c>
       <c r="F24" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A24)</f>
@@ -8699,11 +8755,11 @@
       </c>
       <c r="G24" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A24)</f>
-        <v>0.5262017479584582</v>
+        <v>0.50307324871361025</v>
       </c>
       <c r="H24" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A24)</f>
-        <v>9.7525635167957425E-2</v>
+        <v>9.3239025349410642E-2</v>
       </c>
       <c r="I24" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A24)</f>
@@ -8726,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>2038</v>
       </c>
@@ -8736,7 +8792,7 @@
       </c>
       <c r="C25" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A25)</f>
-        <v>2.9112129900882994E-3</v>
+        <v>2.7832544880421056E-3</v>
       </c>
       <c r="D25" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A25)</f>
@@ -8744,7 +8800,7 @@
       </c>
       <c r="E25" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A25)</f>
-        <v>1.7758399239538536E-2</v>
+        <v>1.6977852377056846E-2</v>
       </c>
       <c r="F25" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A25)</f>
@@ -8752,11 +8808,11 @@
       </c>
       <c r="G25" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A25)</f>
-        <v>0.5327519771861553</v>
+        <v>0.50933557131170382</v>
       </c>
       <c r="H25" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A25)</f>
-        <v>9.8981241663001818E-2</v>
+        <v>9.463065259343173E-2</v>
       </c>
       <c r="I25" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A25)</f>
@@ -8779,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>2039</v>
       </c>
@@ -8789,7 +8845,7 @@
       </c>
       <c r="C26" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A26)</f>
-        <v>2.9476031524643953E-3</v>
+        <v>2.8180451691426217E-3</v>
       </c>
       <c r="D26" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A26)</f>
@@ -8797,7 +8853,7 @@
       </c>
       <c r="E26" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A26)</f>
-        <v>1.7976740213795139E-2</v>
+        <v>1.7186596463659998E-2</v>
       </c>
       <c r="F26" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A26)</f>
@@ -8805,11 +8861,11 @@
       </c>
       <c r="G26" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A26)</f>
-        <v>0.53930220641385418</v>
+        <v>0.51559789390979915</v>
       </c>
       <c r="H26" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A26)</f>
-        <v>0.10043684815804577</v>
+        <v>9.6022279837452817E-2</v>
       </c>
       <c r="I26" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A26)</f>
@@ -8832,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>2040</v>
       </c>
@@ -8842,7 +8898,7 @@
       </c>
       <c r="C27" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A27)</f>
-        <v>2.9839933148405051E-3</v>
+        <v>2.8528358502431517E-3</v>
       </c>
       <c r="D27" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A27)</f>
@@ -8850,7 +8906,7 @@
       </c>
       <c r="E27" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A27)</f>
-        <v>1.8195081188051743E-2</v>
+        <v>1.739534055026315E-2</v>
       </c>
       <c r="F27" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A27)</f>
@@ -8858,11 +8914,11 @@
       </c>
       <c r="G27" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A27)</f>
-        <v>0.54585243564155306</v>
+        <v>0.52186021650789449</v>
       </c>
       <c r="H27" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A27)</f>
-        <v>0.10189245465309016</v>
+        <v>9.7413907081473905E-2</v>
       </c>
       <c r="I27" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A27)</f>
@@ -8885,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>2041</v>
       </c>
@@ -8895,7 +8951,7 @@
       </c>
       <c r="C28" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A28)</f>
-        <v>3.0203834772166011E-3</v>
+        <v>2.8876265313436816E-3</v>
       </c>
       <c r="D28" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A28)</f>
@@ -8903,7 +8959,7 @@
       </c>
       <c r="E28" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A28)</f>
-        <v>1.8413422162308402E-2</v>
+        <v>1.7604084636866302E-2</v>
       </c>
       <c r="F28" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A28)</f>
@@ -8911,11 +8967,11 @@
       </c>
       <c r="G28" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A28)</f>
-        <v>0.55240266486925194</v>
+        <v>0.52812253910598805</v>
       </c>
       <c r="H28" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A28)</f>
-        <v>0.10334806114813411</v>
+        <v>9.8805534325494992E-2</v>
       </c>
       <c r="I28" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A28)</f>
@@ -8938,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>2042</v>
       </c>
@@ -8948,7 +9004,7 @@
       </c>
       <c r="C29" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A29)</f>
-        <v>3.0567736395927109E-3</v>
+        <v>2.9224172124442116E-3</v>
       </c>
       <c r="D29" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A29)</f>
@@ -8956,7 +9012,7 @@
       </c>
       <c r="E29" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A29)</f>
-        <v>1.8631763136565005E-2</v>
+        <v>1.7812828723469454E-2</v>
       </c>
       <c r="F29" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A29)</f>
@@ -8964,11 +9020,11 @@
       </c>
       <c r="G29" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A29)</f>
-        <v>0.55895289409695081</v>
+        <v>0.53438486170408339</v>
       </c>
       <c r="H29" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A29)</f>
-        <v>0.10480366764317806</v>
+        <v>0.10019716156951564</v>
       </c>
       <c r="I29" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A29)</f>
@@ -8991,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>2043</v>
       </c>
@@ -9001,7 +9057,7 @@
       </c>
       <c r="C30" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A30)</f>
-        <v>3.0931638019688068E-3</v>
+        <v>2.9572078935447277E-3</v>
       </c>
       <c r="D30" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A30)</f>
@@ -9009,7 +9065,7 @@
       </c>
       <c r="E30" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A30)</f>
-        <v>1.8850104110821608E-2</v>
+        <v>1.8021572810072606E-2</v>
       </c>
       <c r="F30" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A30)</f>
@@ -9017,11 +9073,11 @@
       </c>
       <c r="G30" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A30)</f>
-        <v>0.56550312332464969</v>
+        <v>0.54064718430217873</v>
       </c>
       <c r="H30" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A30)</f>
-        <v>0.10625927413822245</v>
+        <v>0.10158878881353672</v>
       </c>
       <c r="I30" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A30)</f>
@@ -9044,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>2044</v>
       </c>
@@ -9054,7 +9110,7 @@
       </c>
       <c r="C31" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A31)</f>
-        <v>3.1295539643449166E-3</v>
+        <v>2.9919985746452576E-3</v>
       </c>
       <c r="D31" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A31)</f>
@@ -9062,7 +9118,7 @@
       </c>
       <c r="E31" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A31)</f>
-        <v>1.9068445085078267E-2</v>
+        <v>1.8230316896675813E-2</v>
       </c>
       <c r="F31" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A31)</f>
@@ -9070,11 +9126,11 @@
       </c>
       <c r="G31" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A31)</f>
-        <v>0.57205335255234857</v>
+        <v>0.54690950690027229</v>
       </c>
       <c r="H31" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A31)</f>
-        <v>0.1077148806332664</v>
+        <v>0.10298041605755781</v>
       </c>
       <c r="I31" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A31)</f>
@@ -9097,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>2045</v>
       </c>
@@ -9107,7 +9163,7 @@
       </c>
       <c r="C32" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A32)</f>
-        <v>3.1659441267210126E-3</v>
+        <v>3.0267892557457876E-3</v>
       </c>
       <c r="D32" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A32)</f>
@@ -9115,7 +9171,7 @@
       </c>
       <c r="E32" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A32)</f>
-        <v>1.9286786059334871E-2</v>
+        <v>1.8439060983278965E-2</v>
       </c>
       <c r="F32" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A32)</f>
@@ -9123,11 +9179,11 @@
       </c>
       <c r="G32" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A32)</f>
-        <v>0.57860358178004567</v>
+        <v>0.55317182949836763</v>
       </c>
       <c r="H32" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A32)</f>
-        <v>0.10917048712831079</v>
+        <v>0.1043720433015789</v>
       </c>
       <c r="I32" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A32)</f>
@@ -9150,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>2046</v>
       </c>
@@ -9160,7 +9216,7 @@
       </c>
       <c r="C33" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A33)</f>
-        <v>3.2023342890971224E-3</v>
+        <v>3.0615799368463176E-3</v>
       </c>
       <c r="D33" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A33)</f>
@@ -9168,7 +9224,7 @@
       </c>
       <c r="E33" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A33)</f>
-        <v>1.9505127033591474E-2</v>
+        <v>1.8647805069882117E-2</v>
       </c>
       <c r="F33" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A33)</f>
@@ -9176,11 +9232,11 @@
       </c>
       <c r="G33" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A33)</f>
-        <v>0.58515381100774455</v>
+        <v>0.55943415209646297</v>
       </c>
       <c r="H33" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A33)</f>
-        <v>0.11062609362335474</v>
+        <v>0.10576367054559999</v>
       </c>
       <c r="I33" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A33)</f>
@@ -9203,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>2047</v>
       </c>
@@ -9213,7 +9269,7 @@
       </c>
       <c r="C34" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A34)</f>
-        <v>3.2387244514732183E-3</v>
+        <v>3.0963706179468337E-3</v>
       </c>
       <c r="D34" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A34)</f>
@@ -9221,7 +9277,7 @@
       </c>
       <c r="E34" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A34)</f>
-        <v>1.9723468007848133E-2</v>
+        <v>1.8856549156485269E-2</v>
       </c>
       <c r="F34" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A34)</f>
@@ -9229,11 +9285,11 @@
       </c>
       <c r="G34" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A34)</f>
-        <v>0.59170404023544343</v>
+        <v>0.56569647469455653</v>
       </c>
       <c r="H34" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A34)</f>
-        <v>0.11208170011839913</v>
+        <v>0.10715529778962107</v>
       </c>
       <c r="I34" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A34)</f>
@@ -9256,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>2048</v>
       </c>
@@ -9266,7 +9322,7 @@
       </c>
       <c r="C35" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A35)</f>
-        <v>3.2751146138493281E-3</v>
+        <v>3.1311612990473636E-3</v>
       </c>
       <c r="D35" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A35)</f>
@@ -9274,7 +9330,7 @@
       </c>
       <c r="E35" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A35)</f>
-        <v>1.9941808982104736E-2</v>
+        <v>1.9065293243088421E-2</v>
       </c>
       <c r="F35" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A35)</f>
@@ -9282,11 +9338,11 @@
       </c>
       <c r="G35" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A35)</f>
-        <v>0.59825426946314231</v>
+        <v>0.57195879729265187</v>
       </c>
       <c r="H35" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A35)</f>
-        <v>0.11353730661344308</v>
+        <v>0.10854692503364216</v>
       </c>
       <c r="I35" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A35)</f>
@@ -9309,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>2049</v>
       </c>
@@ -9319,7 +9375,7 @@
       </c>
       <c r="C36" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A36)</f>
-        <v>3.3115047762254379E-3</v>
+        <v>3.1659519801478936E-3</v>
       </c>
       <c r="D36" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A36)</f>
@@ -9327,7 +9383,7 @@
       </c>
       <c r="E36" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A36)</f>
-        <v>2.016014995636134E-2</v>
+        <v>1.9274037329691573E-2</v>
       </c>
       <c r="F36" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A36)</f>
@@ -9335,11 +9391,11 @@
       </c>
       <c r="G36" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A36)</f>
-        <v>0.60480449869084119</v>
+        <v>0.5782211198907472</v>
       </c>
       <c r="H36" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A36)</f>
-        <v>0.11499291310848703</v>
+        <v>0.10993855227766325</v>
       </c>
       <c r="I36" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A36)</f>
@@ -9362,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>2050</v>
       </c>
@@ -9372,7 +9428,7 @@
       </c>
       <c r="C37" s="11">
         <f>TREND(Calculations!C$145:C$146,Calculations!$A$145:$A$146,$A37)</f>
-        <v>3.3478949386015339E-3</v>
+        <v>3.2007426612484097E-3</v>
       </c>
       <c r="D37" s="11">
         <f>TREND(Calculations!D$145:D$146,Calculations!$A$145:$A$146,$A37)</f>
@@ -9380,7 +9436,7 @@
       </c>
       <c r="E37" s="11">
         <f>TREND(Calculations!E$145:E$146,Calculations!$A$145:$A$146,$A37)</f>
-        <v>2.0378490930617998E-2</v>
+        <v>1.9482781416294725E-2</v>
       </c>
       <c r="F37" s="11">
         <f>TREND(Calculations!F$145:F$146,Calculations!$A$145:$A$146,$A37)</f>
@@ -9388,11 +9444,11 @@
       </c>
       <c r="G37" s="11">
         <f>TREND(Calculations!G$145:G$146,Calculations!$A$145:$A$146,$A37)</f>
-        <v>0.61135472791854006</v>
+        <v>0.58448344248884077</v>
       </c>
       <c r="H37" s="11">
         <f>TREND(Calculations!H$145:H$146,Calculations!$A$145:$A$146,$A37)</f>
-        <v>0.11644851960353142</v>
+        <v>0.11133017952168434</v>
       </c>
       <c r="I37" s="11">
         <f>TREND(Calculations!I$145:I$146,Calculations!$A$145:$A$146,$A37)</f>
@@ -9426,17 +9482,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:M37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -9477,7 +9535,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -9487,7 +9545,7 @@
       </c>
       <c r="C2" s="11">
         <f>TREND(Calculations!C$150:C$151,Calculations!$A$150:$A$151,$A2)</f>
-        <v>2.0378490930618026E-3</v>
+        <v>1.9482781416294837E-3</v>
       </c>
       <c r="D2" s="11">
         <f>TREND(Calculations!D$150:D$151,Calculations!$A$150:$A$151,$A2)</f>
@@ -9495,7 +9553,7 @@
       </c>
       <c r="E2" s="11">
         <f>TREND(Calculations!E$150:E$151,Calculations!$A$150:$A$151,$A2)</f>
-        <v>8.0058357227427712E-3</v>
+        <v>7.6539498421157592E-3</v>
       </c>
       <c r="F2" s="11">
         <f>TREND(Calculations!F$150:F$151,Calculations!$A$150:$A$151,$A2)</f>
@@ -9503,11 +9561,11 @@
       </c>
       <c r="G2" s="11">
         <f>TREND(Calculations!G$150:G$151,Calculations!$A$150:$A$151,$A2)</f>
-        <v>0.37845768871147634</v>
+        <v>0.36182308344547387</v>
       </c>
       <c r="H2" s="11">
         <f>TREND(Calculations!H$150:H$151,Calculations!$A$150:$A$151,$A2)</f>
-        <v>4.8762817583978713E-2</v>
+        <v>4.6619512674705321E-2</v>
       </c>
       <c r="I2" s="11">
         <f>TREND(Calculations!I$150:I$151,Calculations!$A$150:$A$151,$A2)</f>
@@ -9530,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -9540,7 +9598,7 @@
       </c>
       <c r="C3" s="11">
         <f>TREND(Calculations!C$150:C$151,Calculations!$A$150:$A$151,$A3)</f>
-        <v>2.0815172879131288E-3</v>
+        <v>1.9900269589501057E-3</v>
       </c>
       <c r="D3" s="11">
         <f>TREND(Calculations!D$150:D$151,Calculations!$A$150:$A$151,$A3)</f>
@@ -9548,7 +9606,7 @@
       </c>
       <c r="E3" s="11">
         <f>TREND(Calculations!E$150:E$151,Calculations!$A$150:$A$151,$A3)</f>
-        <v>8.1513963722472105E-3</v>
+        <v>7.7931125665178236E-3</v>
       </c>
       <c r="F3" s="11">
         <f>TREND(Calculations!F$150:F$151,Calculations!$A$150:$A$151,$A3)</f>
@@ -9556,11 +9614,11 @@
       </c>
       <c r="G3" s="11">
         <f>TREND(Calculations!G$150:G$151,Calculations!$A$150:$A$151,$A3)</f>
-        <v>0.38573572118669652</v>
+        <v>0.36878121966557842</v>
       </c>
       <c r="H3" s="11">
         <f>TREND(Calculations!H$150:H$151,Calculations!$A$150:$A$151,$A3)</f>
-        <v>4.9781742130509787E-2</v>
+        <v>4.7593651745519994E-2</v>
       </c>
       <c r="I3" s="11">
         <f>TREND(Calculations!I$150:I$151,Calculations!$A$150:$A$151,$A3)</f>
@@ -9583,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -9593,7 +9651,7 @@
       </c>
       <c r="C4" s="11">
         <f>TREND(Calculations!C$150:C$151,Calculations!$A$150:$A$151,$A4)</f>
-        <v>2.1251854827644412E-3</v>
+        <v>2.0317757762707417E-3</v>
       </c>
       <c r="D4" s="11">
         <f>TREND(Calculations!D$150:D$151,Calculations!$A$150:$A$151,$A4)</f>
@@ -9601,7 +9659,7 @@
       </c>
       <c r="E4" s="11">
         <f>TREND(Calculations!E$150:E$151,Calculations!$A$150:$A$151,$A4)</f>
-        <v>8.2969570217515942E-3</v>
+        <v>7.9322752909199434E-3</v>
       </c>
       <c r="F4" s="11">
         <f>TREND(Calculations!F$150:F$151,Calculations!$A$150:$A$151,$A4)</f>
@@ -9609,11 +9667,11 @@
       </c>
       <c r="G4" s="11">
         <f>TREND(Calculations!G$150:G$151,Calculations!$A$150:$A$151,$A4)</f>
-        <v>0.39301375366191849</v>
+        <v>0.37573935588568297</v>
       </c>
       <c r="H4" s="11">
         <f>TREND(Calculations!H$150:H$151,Calculations!$A$150:$A$151,$A4)</f>
-        <v>5.0800666677040418E-2</v>
+        <v>4.8567790816334666E-2</v>
       </c>
       <c r="I4" s="11">
         <f>TREND(Calculations!I$150:I$151,Calculations!$A$150:$A$151,$A4)</f>
@@ -9636,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -9646,7 +9704,7 @@
       </c>
       <c r="C5" s="11">
         <f>TREND(Calculations!C$150:C$151,Calculations!$A$150:$A$151,$A5)</f>
-        <v>2.1688536776157674E-3</v>
+        <v>2.0735245935913776E-3</v>
       </c>
       <c r="D5" s="11">
         <f>TREND(Calculations!D$150:D$151,Calculations!$A$150:$A$151,$A5)</f>
@@ -9654,7 +9712,7 @@
       </c>
       <c r="E5" s="11">
         <f>TREND(Calculations!E$150:E$151,Calculations!$A$150:$A$151,$A5)</f>
-        <v>8.4425176712560335E-3</v>
+        <v>8.0714380153220633E-3</v>
       </c>
       <c r="F5" s="11">
         <f>TREND(Calculations!F$150:F$151,Calculations!$A$150:$A$151,$A5)</f>
@@ -9662,11 +9720,11 @@
       </c>
       <c r="G5" s="11">
         <f>TREND(Calculations!G$150:G$151,Calculations!$A$150:$A$151,$A5)</f>
-        <v>0.40029178613713867</v>
+        <v>0.38269749210578929</v>
       </c>
       <c r="H5" s="11">
         <f>TREND(Calculations!H$150:H$151,Calculations!$A$150:$A$151,$A5)</f>
-        <v>5.1819591223571493E-2</v>
+        <v>4.9541929887149339E-2</v>
       </c>
       <c r="I5" s="11">
         <f>TREND(Calculations!I$150:I$151,Calculations!$A$150:$A$151,$A5)</f>
@@ -9689,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -9699,7 +9757,7 @@
       </c>
       <c r="C6" s="11">
         <f>TREND(Calculations!C$150:C$151,Calculations!$A$150:$A$151,$A6)</f>
-        <v>2.2125218724670936E-3</v>
+        <v>2.1152734109119997E-3</v>
       </c>
       <c r="D6" s="11">
         <f>TREND(Calculations!D$150:D$151,Calculations!$A$150:$A$151,$A6)</f>
@@ -9707,7 +9765,7 @@
       </c>
       <c r="E6" s="11">
         <f>TREND(Calculations!E$150:E$151,Calculations!$A$150:$A$151,$A6)</f>
-        <v>8.5880783207604172E-3</v>
+        <v>8.2106007397241831E-3</v>
       </c>
       <c r="F6" s="11">
         <f>TREND(Calculations!F$150:F$151,Calculations!$A$150:$A$151,$A6)</f>
@@ -9715,11 +9773,11 @@
       </c>
       <c r="G6" s="11">
         <f>TREND(Calculations!G$150:G$151,Calculations!$A$150:$A$151,$A6)</f>
-        <v>0.40756981861235886</v>
+        <v>0.38965562832589384</v>
       </c>
       <c r="H6" s="11">
         <f>TREND(Calculations!H$150:H$151,Calculations!$A$150:$A$151,$A6)</f>
-        <v>5.2838515770102568E-2</v>
+        <v>5.0516068957964233E-2</v>
       </c>
       <c r="I6" s="11">
         <f>TREND(Calculations!I$150:I$151,Calculations!$A$150:$A$151,$A6)</f>
@@ -9742,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>2020</v>
       </c>
@@ -9752,7 +9810,7 @@
       </c>
       <c r="C7" s="14">
         <f>TREND(Calculations!C$150:C$151,Calculations!$A$150:$A$151,$A7)</f>
-        <v>2.2561900673184199E-3</v>
+        <v>2.1570222282326357E-3</v>
       </c>
       <c r="D7" s="14">
         <f>TREND(Calculations!D$150:D$151,Calculations!$A$150:$A$151,$A7)</f>
@@ -9760,7 +9818,7 @@
       </c>
       <c r="E7" s="14">
         <f>TREND(Calculations!E$150:E$151,Calculations!$A$150:$A$151,$A7)</f>
-        <v>8.7336389702648565E-3</v>
+        <v>8.3497634641262475E-3</v>
       </c>
       <c r="F7" s="14">
         <f>TREND(Calculations!F$150:F$151,Calculations!$A$150:$A$151,$A7)</f>
@@ -9768,11 +9826,11 @@
       </c>
       <c r="G7" s="14">
         <f>TREND(Calculations!G$150:G$151,Calculations!$A$150:$A$151,$A7)</f>
-        <v>0.41484785108758082</v>
+        <v>0.39661376454600017</v>
       </c>
       <c r="H7" s="14">
         <f>TREND(Calculations!H$150:H$151,Calculations!$A$150:$A$151,$A7)</f>
-        <v>5.3857440316633198E-2</v>
+        <v>5.1490208028778905E-2</v>
       </c>
       <c r="I7" s="14">
         <f>TREND(Calculations!I$150:I$151,Calculations!$A$150:$A$151,$A7)</f>
@@ -9795,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -9805,7 +9863,7 @@
       </c>
       <c r="C8" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A8)</f>
-        <v>2.2925802296945297E-3</v>
+        <v>2.1918129093331518E-3</v>
       </c>
       <c r="D8" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A8)</f>
@@ -9813,7 +9871,7 @@
       </c>
       <c r="E8" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A8)</f>
-        <v>8.8791996197692957E-3</v>
+        <v>8.4889261885284228E-3</v>
       </c>
       <c r="F8" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A8)</f>
@@ -9821,11 +9879,11 @@
       </c>
       <c r="G8" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A8)</f>
-        <v>0.4213980803152797</v>
+        <v>0.40287608714409373</v>
       </c>
       <c r="H8" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A8)</f>
-        <v>5.4803584538412053E-2</v>
+        <v>5.2394765737392657E-2</v>
       </c>
       <c r="I8" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A8)</f>
@@ -9848,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -9858,7 +9916,7 @@
       </c>
       <c r="C9" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A9)</f>
-        <v>2.3289703920706395E-3</v>
+        <v>2.2266035904336817E-3</v>
       </c>
       <c r="D9" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A9)</f>
@@ -9866,7 +9924,7 @@
       </c>
       <c r="E9" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A9)</f>
-        <v>9.024760269273735E-3</v>
+        <v>8.6280889129305427E-3</v>
       </c>
       <c r="F9" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A9)</f>
@@ -9874,11 +9932,11 @@
       </c>
       <c r="G9" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A9)</f>
-        <v>0.42794830954297858</v>
+        <v>0.40913840974218907</v>
       </c>
       <c r="H9" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A9)</f>
-        <v>5.5749728760190687E-2</v>
+        <v>5.3299323446006408E-2</v>
       </c>
       <c r="I9" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A9)</f>
@@ -9901,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -9911,7 +9969,7 @@
       </c>
       <c r="C10" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A10)</f>
-        <v>2.3653605544467354E-3</v>
+        <v>2.2613942715341978E-3</v>
       </c>
       <c r="D10" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A10)</f>
@@ -9919,7 +9977,7 @@
       </c>
       <c r="E10" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A10)</f>
-        <v>9.1703209187781187E-3</v>
+        <v>8.7672516373326626E-3</v>
       </c>
       <c r="F10" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A10)</f>
@@ -9927,11 +9985,11 @@
       </c>
       <c r="G10" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A10)</f>
-        <v>0.43449853877067568</v>
+        <v>0.41540073234028441</v>
       </c>
       <c r="H10" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A10)</f>
-        <v>5.669587298196932E-2</v>
+        <v>5.4203881154620159E-2</v>
       </c>
       <c r="I10" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A10)</f>
@@ -9954,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -9964,7 +10022,7 @@
       </c>
       <c r="C11" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A11)</f>
-        <v>2.4017507168228452E-3</v>
+        <v>2.2961849526347278E-3</v>
       </c>
       <c r="D11" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A11)</f>
@@ -9972,7 +10030,7 @@
       </c>
       <c r="E11" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A11)</f>
-        <v>9.315881568282558E-3</v>
+        <v>8.9064143617347269E-3</v>
       </c>
       <c r="F11" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A11)</f>
@@ -9980,11 +10038,11 @@
       </c>
       <c r="G11" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A11)</f>
-        <v>0.44104876799837456</v>
+        <v>0.42166305493837797</v>
       </c>
       <c r="H11" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A11)</f>
-        <v>5.7642017203748175E-2</v>
+        <v>5.5108438863233689E-2</v>
       </c>
       <c r="I11" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A11)</f>
@@ -10007,7 +10065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2025</v>
       </c>
@@ -10017,7 +10075,7 @@
       </c>
       <c r="C12" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A12)</f>
-        <v>2.4381408791989412E-3</v>
+        <v>2.3309756337352577E-3</v>
       </c>
       <c r="D12" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A12)</f>
@@ -10025,7 +10083,7 @@
       </c>
       <c r="E12" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A12)</f>
-        <v>9.4614422177869417E-3</v>
+        <v>9.0455770861368467E-3</v>
       </c>
       <c r="F12" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A12)</f>
@@ -10033,11 +10091,11 @@
       </c>
       <c r="G12" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A12)</f>
-        <v>0.44759899722607344</v>
+        <v>0.42792537753647331</v>
       </c>
       <c r="H12" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A12)</f>
-        <v>5.8588161425526808E-2</v>
+        <v>5.601299657184744E-2</v>
       </c>
       <c r="I12" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A12)</f>
@@ -10060,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2026</v>
       </c>
@@ -10070,7 +10128,7 @@
       </c>
       <c r="C13" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A13)</f>
-        <v>2.474531041575051E-3</v>
+        <v>2.3657663148357877E-3</v>
       </c>
       <c r="D13" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A13)</f>
@@ -10078,7 +10136,7 @@
       </c>
       <c r="E13" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A13)</f>
-        <v>9.607002867291381E-3</v>
+        <v>9.1847398105389666E-3</v>
       </c>
       <c r="F13" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A13)</f>
@@ -10086,11 +10144,11 @@
       </c>
       <c r="G13" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A13)</f>
-        <v>0.45414922645377231</v>
+        <v>0.43418770013456864</v>
       </c>
       <c r="H13" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A13)</f>
-        <v>5.9534305647305441E-2</v>
+        <v>5.6917554280461191E-2</v>
       </c>
       <c r="I13" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A13)</f>
@@ -10113,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2027</v>
       </c>
@@ -10123,7 +10181,7 @@
       </c>
       <c r="C14" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A14)</f>
-        <v>2.5109212039511469E-3</v>
+        <v>2.4005569959363038E-3</v>
       </c>
       <c r="D14" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A14)</f>
@@ -10131,7 +10189,7 @@
       </c>
       <c r="E14" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A14)</f>
-        <v>9.7525635167957647E-3</v>
+        <v>9.3239025349410865E-3</v>
       </c>
       <c r="F14" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A14)</f>
@@ -10139,11 +10197,11 @@
       </c>
       <c r="G14" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A14)</f>
-        <v>0.46069945568147119</v>
+        <v>0.44045002273266221</v>
       </c>
       <c r="H14" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A14)</f>
-        <v>6.0480449869084296E-2</v>
+        <v>5.782211198907472E-2</v>
       </c>
       <c r="I14" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A14)</f>
@@ -10166,7 +10224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2028</v>
       </c>
@@ -10176,7 +10234,7 @@
       </c>
       <c r="C15" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A15)</f>
-        <v>2.5473113663272567E-3</v>
+        <v>2.4353476770368337E-3</v>
       </c>
       <c r="D15" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A15)</f>
@@ -10184,7 +10242,7 @@
       </c>
       <c r="E15" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A15)</f>
-        <v>9.898124166300204E-3</v>
+        <v>9.4630652593431508E-3</v>
       </c>
       <c r="F15" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A15)</f>
@@ -10192,11 +10250,11 @@
       </c>
       <c r="G15" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A15)</f>
-        <v>0.46724968490917007</v>
+        <v>0.44671234533075754</v>
       </c>
       <c r="H15" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A15)</f>
-        <v>6.1426594090862929E-2</v>
+        <v>5.8726669697688472E-2</v>
       </c>
       <c r="I15" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A15)</f>
@@ -10219,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2029</v>
       </c>
@@ -10229,7 +10287,7 @@
       </c>
       <c r="C16" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A16)</f>
-        <v>2.5837015287033666E-3</v>
+        <v>2.4701383581373637E-3</v>
       </c>
       <c r="D16" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A16)</f>
@@ -10237,7 +10295,7 @@
       </c>
       <c r="E16" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A16)</f>
-        <v>1.0043684815804643E-2</v>
+        <v>9.6022279837452706E-3</v>
       </c>
       <c r="F16" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A16)</f>
@@ -10245,11 +10303,11 @@
       </c>
       <c r="G16" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A16)</f>
-        <v>0.47379991413686895</v>
+        <v>0.4529746679288511</v>
       </c>
       <c r="H16" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A16)</f>
-        <v>6.2372738312641562E-2</v>
+        <v>5.9631227406302223E-2</v>
       </c>
       <c r="I16" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A16)</f>
@@ -10272,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2030</v>
       </c>
@@ -10282,7 +10340,7 @@
       </c>
       <c r="C17" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A17)</f>
-        <v>2.6200916910794625E-3</v>
+        <v>2.5049290392378937E-3</v>
       </c>
       <c r="D17" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A17)</f>
@@ -10290,7 +10348,7 @@
       </c>
       <c r="E17" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A17)</f>
-        <v>1.0189245465309027E-2</v>
+        <v>9.7413907081473905E-3</v>
       </c>
       <c r="F17" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A17)</f>
@@ -10298,11 +10356,11 @@
       </c>
       <c r="G17" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A17)</f>
-        <v>0.48035014336456605</v>
+        <v>0.45923699052694644</v>
       </c>
       <c r="H17" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A17)</f>
-        <v>6.3318882534420196E-2</v>
+        <v>6.0535785114915752E-2</v>
       </c>
       <c r="I17" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A17)</f>
@@ -10325,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>2031</v>
       </c>
@@ -10335,7 +10393,7 @@
       </c>
       <c r="C18" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A18)</f>
-        <v>2.6564818534555723E-3</v>
+        <v>2.5397197203384098E-3</v>
       </c>
       <c r="D18" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A18)</f>
@@ -10343,7 +10401,7 @@
       </c>
       <c r="E18" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A18)</f>
-        <v>1.0334806114813466E-2</v>
+        <v>9.8805534325495104E-3</v>
       </c>
       <c r="F18" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A18)</f>
@@ -10351,11 +10409,11 @@
       </c>
       <c r="G18" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A18)</f>
-        <v>0.48690037259226493</v>
+        <v>0.46549931312504178</v>
       </c>
       <c r="H18" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A18)</f>
-        <v>6.4265026756199051E-2</v>
+        <v>6.1440342823529503E-2</v>
       </c>
       <c r="I18" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A18)</f>
@@ -10378,7 +10436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>2032</v>
       </c>
@@ -10388,7 +10446,7 @@
       </c>
       <c r="C19" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A19)</f>
-        <v>2.6928720158316682E-3</v>
+        <v>2.5745104014389397E-3</v>
       </c>
       <c r="D19" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A19)</f>
@@ -10396,7 +10454,7 @@
       </c>
       <c r="E19" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A19)</f>
-        <v>1.048036676431785E-2</v>
+        <v>1.0019716156951575E-2</v>
       </c>
       <c r="F19" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A19)</f>
@@ -10404,11 +10462,11 @@
       </c>
       <c r="G19" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A19)</f>
-        <v>0.49345060181996381</v>
+        <v>0.47176163572313534</v>
       </c>
       <c r="H19" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A19)</f>
-        <v>6.5211170977977684E-2</v>
+        <v>6.2344900532143255E-2</v>
       </c>
       <c r="I19" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A19)</f>
@@ -10431,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>2033</v>
       </c>
@@ -10441,7 +10499,7 @@
       </c>
       <c r="C20" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A20)</f>
-        <v>2.7292621782077781E-3</v>
+        <v>2.6093010825394697E-3</v>
       </c>
       <c r="D20" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A20)</f>
@@ -10449,7 +10507,7 @@
       </c>
       <c r="E20" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A20)</f>
-        <v>1.0625927413822289E-2</v>
+        <v>1.0158878881353695E-2</v>
       </c>
       <c r="F20" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A20)</f>
@@ -10457,11 +10515,11 @@
       </c>
       <c r="G20" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A20)</f>
-        <v>0.50000083104766269</v>
+        <v>0.47802395832123068</v>
       </c>
       <c r="H20" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A20)</f>
-        <v>6.6157315199756317E-2</v>
+        <v>6.3249458240757006E-2</v>
       </c>
       <c r="I20" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A20)</f>
@@ -10484,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>2034</v>
       </c>
@@ -10494,7 +10552,7 @@
       </c>
       <c r="C21" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A21)</f>
-        <v>2.765652340583874E-3</v>
+        <v>2.6440917636399996E-3</v>
       </c>
       <c r="D21" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A21)</f>
@@ -10502,7 +10560,7 @@
       </c>
       <c r="E21" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A21)</f>
-        <v>1.0771488063326673E-2</v>
+        <v>1.0298041605755814E-2</v>
       </c>
       <c r="F21" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A21)</f>
@@ -10510,11 +10568,11 @@
       </c>
       <c r="G21" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A21)</f>
-        <v>0.50655106027536156</v>
+        <v>0.48428628091932602</v>
       </c>
       <c r="H21" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A21)</f>
-        <v>6.710345942153495E-2</v>
+        <v>6.4154015949370535E-2</v>
       </c>
       <c r="I21" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A21)</f>
@@ -10537,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>2035</v>
       </c>
@@ -10547,7 +10605,7 @@
       </c>
       <c r="C22" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A22)</f>
-        <v>2.8020425029599838E-3</v>
+        <v>2.6788824447405157E-3</v>
       </c>
       <c r="D22" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A22)</f>
@@ -10555,7 +10613,7 @@
       </c>
       <c r="E22" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A22)</f>
-        <v>1.0917048712831112E-2</v>
+        <v>1.0437204330157879E-2</v>
       </c>
       <c r="F22" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A22)</f>
@@ -10563,11 +10621,11 @@
       </c>
       <c r="G22" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A22)</f>
-        <v>0.51310128950306044</v>
+        <v>0.49054860351741958</v>
       </c>
       <c r="H22" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A22)</f>
-        <v>6.8049603643313805E-2</v>
+        <v>6.5058573657984287E-2</v>
       </c>
       <c r="I22" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A22)</f>
@@ -10590,7 +10648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>2036</v>
       </c>
@@ -10600,7 +10658,7 @@
       </c>
       <c r="C23" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A23)</f>
-        <v>2.8384326653360797E-3</v>
+        <v>2.7136731258410457E-3</v>
       </c>
       <c r="D23" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A23)</f>
@@ -10608,7 +10666,7 @@
       </c>
       <c r="E23" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A23)</f>
-        <v>1.1062609362335496E-2</v>
+        <v>1.0576367054559999E-2</v>
       </c>
       <c r="F23" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A23)</f>
@@ -10616,11 +10674,11 @@
       </c>
       <c r="G23" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A23)</f>
-        <v>0.51965151873075932</v>
+        <v>0.49681092611551492</v>
       </c>
       <c r="H23" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A23)</f>
-        <v>6.8995747865092438E-2</v>
+        <v>6.5963131366598038E-2</v>
       </c>
       <c r="I23" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A23)</f>
@@ -10643,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>2037</v>
       </c>
@@ -10653,7 +10711,7 @@
       </c>
       <c r="C24" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A24)</f>
-        <v>2.8748228277121896E-3</v>
+        <v>2.7484638069415757E-3</v>
       </c>
       <c r="D24" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A24)</f>
@@ -10661,7 +10719,7 @@
       </c>
       <c r="E24" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A24)</f>
-        <v>1.1208170011839935E-2</v>
+        <v>1.0715529778962118E-2</v>
       </c>
       <c r="F24" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A24)</f>
@@ -10669,11 +10727,11 @@
       </c>
       <c r="G24" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A24)</f>
-        <v>0.5262017479584582</v>
+        <v>0.50307324871361025</v>
       </c>
       <c r="H24" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A24)</f>
-        <v>6.9941892086871071E-2</v>
+        <v>6.6867689075211567E-2</v>
       </c>
       <c r="I24" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A24)</f>
@@ -10696,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>2038</v>
       </c>
@@ -10706,7 +10764,7 @@
       </c>
       <c r="C25" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A25)</f>
-        <v>2.9112129900882994E-3</v>
+        <v>2.7832544880421056E-3</v>
       </c>
       <c r="D25" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A25)</f>
@@ -10714,7 +10772,7 @@
       </c>
       <c r="E25" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A25)</f>
-        <v>1.1353730661344374E-2</v>
+        <v>1.0854692503364238E-2</v>
       </c>
       <c r="F25" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A25)</f>
@@ -10722,11 +10780,11 @@
       </c>
       <c r="G25" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A25)</f>
-        <v>0.5327519771861553</v>
+        <v>0.50933557131170382</v>
       </c>
       <c r="H25" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A25)</f>
-        <v>7.0888036308649705E-2</v>
+        <v>6.7772246783825318E-2</v>
       </c>
       <c r="I25" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A25)</f>
@@ -10749,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>2039</v>
       </c>
@@ -10759,7 +10817,7 @@
       </c>
       <c r="C26" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A26)</f>
-        <v>2.9476031524643953E-3</v>
+        <v>2.8180451691426217E-3</v>
       </c>
       <c r="D26" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A26)</f>
@@ -10767,7 +10825,7 @@
       </c>
       <c r="E26" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A26)</f>
-        <v>1.1499291310848758E-2</v>
+        <v>1.0993855227766303E-2</v>
       </c>
       <c r="F26" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A26)</f>
@@ -10775,11 +10833,11 @@
       </c>
       <c r="G26" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A26)</f>
-        <v>0.53930220641385418</v>
+        <v>0.51559789390979915</v>
       </c>
       <c r="H26" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A26)</f>
-        <v>7.183418053042856E-2</v>
+        <v>6.867680449243907E-2</v>
       </c>
       <c r="I26" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A26)</f>
@@ -10802,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>2040</v>
       </c>
@@ -10812,7 +10870,7 @@
       </c>
       <c r="C27" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A27)</f>
-        <v>2.9839933148405051E-3</v>
+        <v>2.8528358502431517E-3</v>
       </c>
       <c r="D27" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A27)</f>
@@ -10820,7 +10878,7 @@
       </c>
       <c r="E27" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A27)</f>
-        <v>1.1644851960353197E-2</v>
+        <v>1.1133017952168422E-2</v>
       </c>
       <c r="F27" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A27)</f>
@@ -10828,11 +10886,11 @@
       </c>
       <c r="G27" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A27)</f>
-        <v>0.54585243564155306</v>
+        <v>0.52186021650789449</v>
       </c>
       <c r="H27" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A27)</f>
-        <v>7.2780324752207193E-2</v>
+        <v>6.9581362201052599E-2</v>
       </c>
       <c r="I27" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A27)</f>
@@ -10855,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>2041</v>
       </c>
@@ -10865,7 +10923,7 @@
       </c>
       <c r="C28" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A28)</f>
-        <v>3.0203834772166011E-3</v>
+        <v>2.8876265313436816E-3</v>
       </c>
       <c r="D28" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A28)</f>
@@ -10873,7 +10931,7 @@
       </c>
       <c r="E28" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A28)</f>
-        <v>1.1790412609857581E-2</v>
+        <v>1.1272180676570542E-2</v>
       </c>
       <c r="F28" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A28)</f>
@@ -10881,11 +10939,11 @@
       </c>
       <c r="G28" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A28)</f>
-        <v>0.55240266486925194</v>
+        <v>0.52812253910598805</v>
       </c>
       <c r="H28" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A28)</f>
-        <v>7.3726468973985826E-2</v>
+        <v>7.048591990966635E-2</v>
       </c>
       <c r="I28" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A28)</f>
@@ -10908,7 +10966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>2042</v>
       </c>
@@ -10918,7 +10976,7 @@
       </c>
       <c r="C29" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A29)</f>
-        <v>3.0567736395927109E-3</v>
+        <v>2.9224172124442116E-3</v>
       </c>
       <c r="D29" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A29)</f>
@@ -10926,7 +10984,7 @@
       </c>
       <c r="E29" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A29)</f>
-        <v>1.193597325936202E-2</v>
+        <v>1.1411343400972662E-2</v>
       </c>
       <c r="F29" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A29)</f>
@@ -10934,11 +10992,11 @@
       </c>
       <c r="G29" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A29)</f>
-        <v>0.55895289409695081</v>
+        <v>0.53438486170408339</v>
       </c>
       <c r="H29" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A29)</f>
-        <v>7.4672613195764459E-2</v>
+        <v>7.1390477618280102E-2</v>
       </c>
       <c r="I29" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A29)</f>
@@ -10961,7 +11019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>2043</v>
       </c>
@@ -10971,7 +11029,7 @@
       </c>
       <c r="C30" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A30)</f>
-        <v>3.0931638019688068E-3</v>
+        <v>2.9572078935447277E-3</v>
       </c>
       <c r="D30" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A30)</f>
@@ -10979,7 +11037,7 @@
       </c>
       <c r="E30" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A30)</f>
-        <v>1.2081533908866404E-2</v>
+        <v>1.1550506125374727E-2</v>
       </c>
       <c r="F30" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A30)</f>
@@ -10987,11 +11045,11 @@
       </c>
       <c r="G30" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A30)</f>
-        <v>0.56550312332464969</v>
+        <v>0.54064718430217873</v>
       </c>
       <c r="H30" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A30)</f>
-        <v>7.5618757417543314E-2</v>
+        <v>7.2295035326893853E-2</v>
       </c>
       <c r="I30" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A30)</f>
@@ -11014,7 +11072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>2044</v>
       </c>
@@ -11024,7 +11082,7 @@
       </c>
       <c r="C31" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A31)</f>
-        <v>3.1295539643449166E-3</v>
+        <v>2.9919985746452576E-3</v>
       </c>
       <c r="D31" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A31)</f>
@@ -11032,7 +11090,7 @@
       </c>
       <c r="E31" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A31)</f>
-        <v>1.2227094558370843E-2</v>
+        <v>1.1689668849776846E-2</v>
       </c>
       <c r="F31" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A31)</f>
@@ -11040,11 +11098,11 @@
       </c>
       <c r="G31" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A31)</f>
-        <v>0.57205335255234857</v>
+        <v>0.54690950690027229</v>
       </c>
       <c r="H31" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A31)</f>
-        <v>7.6564901639321947E-2</v>
+        <v>7.3199593035507382E-2</v>
       </c>
       <c r="I31" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A31)</f>
@@ -11067,7 +11125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>2045</v>
       </c>
@@ -11077,7 +11135,7 @@
       </c>
       <c r="C32" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A32)</f>
-        <v>3.1659441267210126E-3</v>
+        <v>3.0267892557457876E-3</v>
       </c>
       <c r="D32" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A32)</f>
@@ -11085,7 +11143,7 @@
       </c>
       <c r="E32" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A32)</f>
-        <v>1.2372655207875227E-2</v>
+        <v>1.1828831574178966E-2</v>
       </c>
       <c r="F32" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A32)</f>
@@ -11093,11 +11151,11 @@
       </c>
       <c r="G32" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A32)</f>
-        <v>0.57860358178004567</v>
+        <v>0.55317182949836763</v>
       </c>
       <c r="H32" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A32)</f>
-        <v>7.751104586110058E-2</v>
+        <v>7.4104150744121133E-2</v>
       </c>
       <c r="I32" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A32)</f>
@@ -11120,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>2046</v>
       </c>
@@ -11130,7 +11188,7 @@
       </c>
       <c r="C33" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A33)</f>
-        <v>3.2023342890971224E-3</v>
+        <v>3.0615799368463176E-3</v>
       </c>
       <c r="D33" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A33)</f>
@@ -11138,7 +11196,7 @@
       </c>
       <c r="E33" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A33)</f>
-        <v>1.2518215857379666E-2</v>
+        <v>1.1967994298581086E-2</v>
       </c>
       <c r="F33" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A33)</f>
@@ -11146,11 +11204,11 @@
       </c>
       <c r="G33" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A33)</f>
-        <v>0.58515381100774455</v>
+        <v>0.55943415209646297</v>
       </c>
       <c r="H33" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A33)</f>
-        <v>7.8457190082879213E-2</v>
+        <v>7.5008708452734885E-2</v>
       </c>
       <c r="I33" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A33)</f>
@@ -11173,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>2047</v>
       </c>
@@ -11183,7 +11241,7 @@
       </c>
       <c r="C34" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A34)</f>
-        <v>3.2387244514732183E-3</v>
+        <v>3.0963706179468337E-3</v>
       </c>
       <c r="D34" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A34)</f>
@@ -11191,7 +11249,7 @@
       </c>
       <c r="E34" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A34)</f>
-        <v>1.266377650688405E-2</v>
+        <v>1.210715702298315E-2</v>
       </c>
       <c r="F34" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A34)</f>
@@ -11199,11 +11257,11 @@
       </c>
       <c r="G34" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A34)</f>
-        <v>0.59170404023544343</v>
+        <v>0.56569647469455653</v>
       </c>
       <c r="H34" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A34)</f>
-        <v>7.9403334304658069E-2</v>
+        <v>7.5913266161348414E-2</v>
       </c>
       <c r="I34" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A34)</f>
@@ -11226,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>2048</v>
       </c>
@@ -11236,7 +11294,7 @@
       </c>
       <c r="C35" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A35)</f>
-        <v>3.2751146138493281E-3</v>
+        <v>3.1311612990473636E-3</v>
       </c>
       <c r="D35" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A35)</f>
@@ -11244,7 +11302,7 @@
       </c>
       <c r="E35" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A35)</f>
-        <v>1.2809337156388489E-2</v>
+        <v>1.224631974738527E-2</v>
       </c>
       <c r="F35" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A35)</f>
@@ -11252,11 +11310,11 @@
       </c>
       <c r="G35" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A35)</f>
-        <v>0.59825426946314231</v>
+        <v>0.57195879729265187</v>
       </c>
       <c r="H35" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A35)</f>
-        <v>8.0349478526436702E-2</v>
+        <v>7.6817823869962165E-2</v>
       </c>
       <c r="I35" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A35)</f>
@@ -11279,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>2049</v>
       </c>
@@ -11289,7 +11347,7 @@
       </c>
       <c r="C36" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A36)</f>
-        <v>3.3115047762254379E-3</v>
+        <v>3.1659519801478936E-3</v>
       </c>
       <c r="D36" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A36)</f>
@@ -11297,7 +11355,7 @@
       </c>
       <c r="E36" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A36)</f>
-        <v>1.2954897805892929E-2</v>
+        <v>1.238548247178739E-2</v>
       </c>
       <c r="F36" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A36)</f>
@@ -11305,11 +11363,11 @@
       </c>
       <c r="G36" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A36)</f>
-        <v>0.60480449869084119</v>
+        <v>0.5782211198907472</v>
       </c>
       <c r="H36" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A36)</f>
-        <v>8.1295622748215335E-2</v>
+        <v>7.7722381578575916E-2</v>
       </c>
       <c r="I36" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A36)</f>
@@ -11332,7 +11390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>2050</v>
       </c>
@@ -11342,7 +11400,7 @@
       </c>
       <c r="C37" s="11">
         <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A37)</f>
-        <v>3.3478949386015339E-3</v>
+        <v>3.2007426612484097E-3</v>
       </c>
       <c r="D37" s="11">
         <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A37)</f>
@@ -11350,7 +11408,7 @@
       </c>
       <c r="E37" s="11">
         <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A37)</f>
-        <v>1.3100458455397312E-2</v>
+        <v>1.2524645196189454E-2</v>
       </c>
       <c r="F37" s="11">
         <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A37)</f>
@@ -11358,11 +11416,11 @@
       </c>
       <c r="G37" s="11">
         <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A37)</f>
-        <v>0.61135472791854006</v>
+        <v>0.58448344248884077</v>
       </c>
       <c r="H37" s="11">
         <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A37)</f>
-        <v>8.224176696999419E-2</v>
+        <v>7.8626939287189446E-2</v>
       </c>
       <c r="I37" s="11">
         <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A37)</f>
@@ -11396,17 +11454,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -11447,7 +11507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -11457,7 +11517,7 @@
       </c>
       <c r="C2" s="11">
         <f>TREND(Calculations!C$156:C$157,Calculations!$A$156:$A$157,$A2)</f>
-        <v>2.0378490930618026E-3</v>
+        <v>1.9482781416294837E-3</v>
       </c>
       <c r="D2" s="11">
         <f>TREND(Calculations!D$156:D$157,Calculations!$A$156:$A$157,$A2)</f>
@@ -11465,7 +11525,7 @@
       </c>
       <c r="E2" s="11">
         <f>TREND(Calculations!E$156:E$157,Calculations!$A$156:$A$157,$A2)</f>
-        <v>8.0058357227427712E-3</v>
+        <v>7.6539498421157592E-3</v>
       </c>
       <c r="F2" s="11">
         <f>TREND(Calculations!F$156:F$157,Calculations!$A$156:$A$157,$A2)</f>
@@ -11473,11 +11533,11 @@
       </c>
       <c r="G2" s="11">
         <f>TREND(Calculations!G$156:G$157,Calculations!$A$156:$A$157,$A2)</f>
-        <v>0.59679866296809791</v>
+        <v>0.57056717004862989</v>
       </c>
       <c r="H2" s="11">
         <f>TREND(Calculations!H$156:H$157,Calculations!$A$156:$A$157,$A2)</f>
-        <v>3.3478949386015255E-2</v>
+        <v>3.2007426612484124E-2</v>
       </c>
       <c r="I2" s="11">
         <f>TREND(Calculations!I$156:I$157,Calculations!$A$156:$A$157,$A2)</f>
@@ -11500,7 +11560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -11510,7 +11570,7 @@
       </c>
       <c r="C3" s="11">
         <f>TREND(Calculations!C$156:C$157,Calculations!$A$156:$A$157,$A3)</f>
-        <v>2.0815172879131288E-3</v>
+        <v>1.9900269589501057E-3</v>
       </c>
       <c r="D3" s="11">
         <f>TREND(Calculations!D$156:D$157,Calculations!$A$156:$A$157,$A3)</f>
@@ -11518,7 +11578,7 @@
       </c>
       <c r="E3" s="11">
         <f>TREND(Calculations!E$156:E$157,Calculations!$A$156:$A$157,$A3)</f>
-        <v>8.1513963722472105E-3</v>
+        <v>7.7931125665178236E-3</v>
       </c>
       <c r="F3" s="11">
         <f>TREND(Calculations!F$156:F$157,Calculations!$A$156:$A$157,$A3)</f>
@@ -11526,11 +11586,11 @@
       </c>
       <c r="G3" s="11">
         <f>TREND(Calculations!G$156:G$157,Calculations!$A$156:$A$157,$A3)</f>
-        <v>0.60989912142349567</v>
+        <v>0.58309181524482057</v>
       </c>
       <c r="H3" s="11">
         <f>TREND(Calculations!H$156:H$157,Calculations!$A$156:$A$157,$A3)</f>
-        <v>3.406119198403279E-2</v>
+        <v>3.2564077510092382E-2</v>
       </c>
       <c r="I3" s="11">
         <f>TREND(Calculations!I$156:I$157,Calculations!$A$156:$A$157,$A3)</f>
@@ -11553,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -11563,7 +11623,7 @@
       </c>
       <c r="C4" s="11">
         <f>TREND(Calculations!C$156:C$157,Calculations!$A$156:$A$157,$A4)</f>
-        <v>2.1251854827644412E-3</v>
+        <v>2.0317757762707417E-3</v>
       </c>
       <c r="D4" s="11">
         <f>TREND(Calculations!D$156:D$157,Calculations!$A$156:$A$157,$A4)</f>
@@ -11571,7 +11631,7 @@
       </c>
       <c r="E4" s="11">
         <f>TREND(Calculations!E$156:E$157,Calculations!$A$156:$A$157,$A4)</f>
-        <v>8.2969570217515942E-3</v>
+        <v>7.9322752909199434E-3</v>
       </c>
       <c r="F4" s="11">
         <f>TREND(Calculations!F$156:F$157,Calculations!$A$156:$A$157,$A4)</f>
@@ -11579,11 +11639,11 @@
       </c>
       <c r="G4" s="11">
         <f>TREND(Calculations!G$156:G$157,Calculations!$A$156:$A$157,$A4)</f>
-        <v>0.62299957987889343</v>
+        <v>0.59561646044100769</v>
       </c>
       <c r="H4" s="11">
         <f>TREND(Calculations!H$156:H$157,Calculations!$A$156:$A$157,$A4)</f>
-        <v>3.4643434582050547E-2</v>
+        <v>3.3120728407700861E-2</v>
       </c>
       <c r="I4" s="11">
         <f>TREND(Calculations!I$156:I$157,Calculations!$A$156:$A$157,$A4)</f>
@@ -11606,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -11616,7 +11676,7 @@
       </c>
       <c r="C5" s="11">
         <f>TREND(Calculations!C$156:C$157,Calculations!$A$156:$A$157,$A5)</f>
-        <v>2.1688536776157674E-3</v>
+        <v>2.0735245935913776E-3</v>
       </c>
       <c r="D5" s="11">
         <f>TREND(Calculations!D$156:D$157,Calculations!$A$156:$A$157,$A5)</f>
@@ -11624,7 +11684,7 @@
       </c>
       <c r="E5" s="11">
         <f>TREND(Calculations!E$156:E$157,Calculations!$A$156:$A$157,$A5)</f>
-        <v>8.4425176712560335E-3</v>
+        <v>8.0714380153220633E-3</v>
       </c>
       <c r="F5" s="11">
         <f>TREND(Calculations!F$156:F$157,Calculations!$A$156:$A$157,$A5)</f>
@@ -11632,11 +11692,11 @@
       </c>
       <c r="G5" s="11">
         <f>TREND(Calculations!G$156:G$157,Calculations!$A$156:$A$157,$A5)</f>
-        <v>0.63610003833429118</v>
+        <v>0.60814110563719836</v>
       </c>
       <c r="H5" s="11">
         <f>TREND(Calculations!H$156:H$157,Calculations!$A$156:$A$157,$A5)</f>
-        <v>3.5225677180068304E-2</v>
+        <v>3.3677379305309341E-2</v>
       </c>
       <c r="I5" s="11">
         <f>TREND(Calculations!I$156:I$157,Calculations!$A$156:$A$157,$A5)</f>
@@ -11659,7 +11719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -11669,7 +11729,7 @@
       </c>
       <c r="C6" s="11">
         <f>TREND(Calculations!C$156:C$157,Calculations!$A$156:$A$157,$A6)</f>
-        <v>2.2125218724670936E-3</v>
+        <v>2.1152734109119997E-3</v>
       </c>
       <c r="D6" s="11">
         <f>TREND(Calculations!D$156:D$157,Calculations!$A$156:$A$157,$A6)</f>
@@ -11677,7 +11737,7 @@
       </c>
       <c r="E6" s="11">
         <f>TREND(Calculations!E$156:E$157,Calculations!$A$156:$A$157,$A6)</f>
-        <v>8.5880783207604172E-3</v>
+        <v>8.2106007397241831E-3</v>
       </c>
       <c r="F6" s="11">
         <f>TREND(Calculations!F$156:F$157,Calculations!$A$156:$A$157,$A6)</f>
@@ -11685,11 +11745,11 @@
       </c>
       <c r="G6" s="11">
         <f>TREND(Calculations!G$156:G$157,Calculations!$A$156:$A$157,$A6)</f>
-        <v>0.64920049678968894</v>
+        <v>0.62066575083338904</v>
       </c>
       <c r="H6" s="11">
         <f>TREND(Calculations!H$156:H$157,Calculations!$A$156:$A$157,$A6)</f>
-        <v>3.5807919778085839E-2</v>
+        <v>3.423403020291782E-2</v>
       </c>
       <c r="I6" s="11">
         <f>TREND(Calculations!I$156:I$157,Calculations!$A$156:$A$157,$A6)</f>
@@ -11712,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>2020</v>
       </c>
@@ -11722,7 +11782,7 @@
       </c>
       <c r="C7" s="14">
         <f>TREND(Calculations!C$156:C$157,Calculations!$A$156:$A$157,$A7)</f>
-        <v>2.2561900673184199E-3</v>
+        <v>2.1570222282326357E-3</v>
       </c>
       <c r="D7" s="14">
         <f>TREND(Calculations!D$156:D$157,Calculations!$A$156:$A$157,$A7)</f>
@@ -11730,7 +11790,7 @@
       </c>
       <c r="E7" s="14">
         <f>TREND(Calculations!E$156:E$157,Calculations!$A$156:$A$157,$A7)</f>
-        <v>8.7336389702648565E-3</v>
+        <v>8.3497634641262475E-3</v>
       </c>
       <c r="F7" s="14">
         <f>TREND(Calculations!F$156:F$157,Calculations!$A$156:$A$157,$A7)</f>
@@ -11738,11 +11798,11 @@
       </c>
       <c r="G7" s="14">
         <f>TREND(Calculations!G$156:G$157,Calculations!$A$156:$A$157,$A7)</f>
-        <v>0.6623009552450867</v>
+        <v>0.63319039602957616</v>
       </c>
       <c r="H7" s="14">
         <f>TREND(Calculations!H$156:H$157,Calculations!$A$156:$A$157,$A7)</f>
-        <v>3.6390162376103596E-2</v>
+        <v>3.4790681100526077E-2</v>
       </c>
       <c r="I7" s="14">
         <f>TREND(Calculations!I$156:I$157,Calculations!$A$156:$A$157,$A7)</f>
@@ -11765,7 +11825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -11775,7 +11835,7 @@
       </c>
       <c r="C8" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A8)</f>
-        <v>2.2925802296945297E-3</v>
+        <v>2.1918129093331518E-3</v>
       </c>
       <c r="D8" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A8)</f>
@@ -11783,7 +11843,7 @@
       </c>
       <c r="E8" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A8)</f>
-        <v>8.8791996197692957E-3</v>
+        <v>8.4889261885284228E-3</v>
       </c>
       <c r="F8" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A8)</f>
@@ -11791,11 +11851,11 @@
       </c>
       <c r="G8" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A8)</f>
-        <v>0.67612921694800576</v>
+        <v>0.6464108548477796</v>
       </c>
       <c r="H8" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A8)</f>
-        <v>3.7117965623625571E-2</v>
+        <v>3.5486494722536843E-2</v>
       </c>
       <c r="I8" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A8)</f>
@@ -11818,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -11828,7 +11888,7 @@
       </c>
       <c r="C9" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A9)</f>
-        <v>2.3289703920706395E-3</v>
+        <v>2.2266035904336817E-3</v>
       </c>
       <c r="D9" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A9)</f>
@@ -11836,7 +11896,7 @@
       </c>
       <c r="E9" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A9)</f>
-        <v>9.024760269273735E-3</v>
+        <v>8.6280889129305427E-3</v>
       </c>
       <c r="F9" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A9)</f>
@@ -11844,11 +11904,11 @@
       </c>
       <c r="G9" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A9)</f>
-        <v>0.68995747865092483</v>
+        <v>0.65963131366597949</v>
       </c>
       <c r="H9" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A9)</f>
-        <v>3.7845768871147767E-2</v>
+        <v>3.6182308344547387E-2</v>
       </c>
       <c r="I9" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A9)</f>
@@ -11871,7 +11931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -11881,7 +11941,7 @@
       </c>
       <c r="C10" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A10)</f>
-        <v>2.3653605544467354E-3</v>
+        <v>2.2613942715341978E-3</v>
       </c>
       <c r="D10" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A10)</f>
@@ -11889,7 +11949,7 @@
       </c>
       <c r="E10" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A10)</f>
-        <v>9.1703209187781187E-3</v>
+        <v>8.7672516373326626E-3</v>
       </c>
       <c r="F10" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A10)</f>
@@ -11897,11 +11957,11 @@
       </c>
       <c r="G10" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A10)</f>
-        <v>0.70378574035384389</v>
+        <v>0.67285177248417938</v>
       </c>
       <c r="H10" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A10)</f>
-        <v>3.8573572118669741E-2</v>
+        <v>3.6878121966557931E-2</v>
       </c>
       <c r="I10" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A10)</f>
@@ -11924,7 +11984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -11934,7 +11994,7 @@
       </c>
       <c r="C11" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A11)</f>
-        <v>2.4017507168228452E-3</v>
+        <v>2.2961849526347278E-3</v>
       </c>
       <c r="D11" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A11)</f>
@@ -11942,7 +12002,7 @@
       </c>
       <c r="E11" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A11)</f>
-        <v>9.315881568282558E-3</v>
+        <v>8.9064143617347269E-3</v>
       </c>
       <c r="F11" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A11)</f>
@@ -11950,11 +12010,11 @@
       </c>
       <c r="G11" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A11)</f>
-        <v>0.71761400205676296</v>
+        <v>0.68607223130237927</v>
       </c>
       <c r="H11" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A11)</f>
-        <v>3.9301375366191937E-2</v>
+        <v>3.7573935588568474E-2</v>
       </c>
       <c r="I11" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A11)</f>
@@ -11977,7 +12037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2025</v>
       </c>
@@ -11987,7 +12047,7 @@
       </c>
       <c r="C12" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A12)</f>
-        <v>2.4381408791989412E-3</v>
+        <v>2.3309756337352577E-3</v>
       </c>
       <c r="D12" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A12)</f>
@@ -11995,7 +12055,7 @@
       </c>
       <c r="E12" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A12)</f>
-        <v>9.4614422177869417E-3</v>
+        <v>9.0455770861368467E-3</v>
       </c>
       <c r="F12" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A12)</f>
@@ -12003,11 +12063,11 @@
       </c>
       <c r="G12" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A12)</f>
-        <v>0.73144226375968202</v>
+        <v>0.69929269012057915</v>
       </c>
       <c r="H12" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A12)</f>
-        <v>4.0029178613713912E-2</v>
+        <v>3.8269749210579018E-2</v>
       </c>
       <c r="I12" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A12)</f>
@@ -12030,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2026</v>
       </c>
@@ -12040,7 +12100,7 @@
       </c>
       <c r="C13" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A13)</f>
-        <v>2.474531041575051E-3</v>
+        <v>2.3657663148357877E-3</v>
       </c>
       <c r="D13" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A13)</f>
@@ -12048,7 +12108,7 @@
       </c>
       <c r="E13" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A13)</f>
-        <v>9.607002867291381E-3</v>
+        <v>9.1847398105389666E-3</v>
       </c>
       <c r="F13" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A13)</f>
@@ -12056,11 +12116,11 @@
       </c>
       <c r="G13" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A13)</f>
-        <v>0.74527052546260109</v>
+        <v>0.71251314893877904</v>
       </c>
       <c r="H13" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A13)</f>
-        <v>4.0756981861235886E-2</v>
+        <v>3.8965562832589562E-2</v>
       </c>
       <c r="I13" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A13)</f>
@@ -12083,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2027</v>
       </c>
@@ -12093,7 +12153,7 @@
       </c>
       <c r="C14" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A14)</f>
-        <v>2.5109212039511469E-3</v>
+        <v>2.4005569959363038E-3</v>
       </c>
       <c r="D14" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A14)</f>
@@ -12101,7 +12161,7 @@
       </c>
       <c r="E14" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A14)</f>
-        <v>9.7525635167957647E-3</v>
+        <v>9.3239025349410865E-3</v>
       </c>
       <c r="F14" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A14)</f>
@@ -12109,11 +12169,11 @@
       </c>
       <c r="G14" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A14)</f>
-        <v>0.75909878716552015</v>
+        <v>0.72573360775697893</v>
       </c>
       <c r="H14" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A14)</f>
-        <v>4.1484785108758082E-2</v>
+        <v>3.9661376454600106E-2</v>
       </c>
       <c r="I14" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A14)</f>
@@ -12136,7 +12196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2028</v>
       </c>
@@ -12146,7 +12206,7 @@
       </c>
       <c r="C15" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A15)</f>
-        <v>2.5473113663272567E-3</v>
+        <v>2.4353476770368337E-3</v>
       </c>
       <c r="D15" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A15)</f>
@@ -12154,7 +12214,7 @@
       </c>
       <c r="E15" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A15)</f>
-        <v>9.898124166300204E-3</v>
+        <v>9.4630652593431508E-3</v>
       </c>
       <c r="F15" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A15)</f>
@@ -12162,11 +12222,11 @@
       </c>
       <c r="G15" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A15)</f>
-        <v>0.77292704886843921</v>
+        <v>0.73895406657517881</v>
       </c>
       <c r="H15" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A15)</f>
-        <v>4.2212588356280056E-2</v>
+        <v>4.0357190076610649E-2</v>
       </c>
       <c r="I15" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A15)</f>
@@ -12189,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2029</v>
       </c>
@@ -12199,7 +12259,7 @@
       </c>
       <c r="C16" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A16)</f>
-        <v>2.5837015287033666E-3</v>
+        <v>2.4701383581373637E-3</v>
       </c>
       <c r="D16" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A16)</f>
@@ -12207,7 +12267,7 @@
       </c>
       <c r="E16" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A16)</f>
-        <v>1.0043684815804643E-2</v>
+        <v>9.6022279837452706E-3</v>
       </c>
       <c r="F16" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A16)</f>
@@ -12215,11 +12275,11 @@
       </c>
       <c r="G16" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A16)</f>
-        <v>0.78675531057136183</v>
+        <v>0.7521745253933787</v>
       </c>
       <c r="H16" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A16)</f>
-        <v>4.2940391603802253E-2</v>
+        <v>4.1053003698621193E-2</v>
       </c>
       <c r="I16" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A16)</f>
@@ -12242,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2030</v>
       </c>
@@ -12252,7 +12312,7 @@
       </c>
       <c r="C17" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A17)</f>
-        <v>2.6200916910794625E-3</v>
+        <v>2.5049290392378937E-3</v>
       </c>
       <c r="D17" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A17)</f>
@@ -12260,7 +12320,7 @@
       </c>
       <c r="E17" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A17)</f>
-        <v>1.0189245465309027E-2</v>
+        <v>9.7413907081473905E-3</v>
       </c>
       <c r="F17" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A17)</f>
@@ -12268,11 +12328,11 @@
       </c>
       <c r="G17" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A17)</f>
-        <v>0.8005835722742809</v>
+        <v>0.76539498421157859</v>
       </c>
       <c r="H17" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A17)</f>
-        <v>4.3668194851324227E-2</v>
+        <v>4.1748817320631515E-2</v>
       </c>
       <c r="I17" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A17)</f>
@@ -12295,7 +12355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>2031</v>
       </c>
@@ -12305,7 +12365,7 @@
       </c>
       <c r="C18" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A18)</f>
-        <v>2.6564818534555723E-3</v>
+        <v>2.5397197203384098E-3</v>
       </c>
       <c r="D18" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A18)</f>
@@ -12313,7 +12373,7 @@
       </c>
       <c r="E18" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A18)</f>
-        <v>1.0334806114813466E-2</v>
+        <v>9.8805534325495104E-3</v>
       </c>
       <c r="F18" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A18)</f>
@@ -12321,11 +12381,11 @@
       </c>
       <c r="G18" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A18)</f>
-        <v>0.81441183397719996</v>
+        <v>0.77861544302977848</v>
       </c>
       <c r="H18" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A18)</f>
-        <v>4.4395998098846423E-2</v>
+        <v>4.2444630942642059E-2</v>
       </c>
       <c r="I18" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A18)</f>
@@ -12348,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>2032</v>
       </c>
@@ -12358,7 +12418,7 @@
       </c>
       <c r="C19" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A19)</f>
-        <v>2.6928720158316682E-3</v>
+        <v>2.5745104014389397E-3</v>
       </c>
       <c r="D19" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A19)</f>
@@ -12366,7 +12426,7 @@
       </c>
       <c r="E19" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A19)</f>
-        <v>1.048036676431785E-2</v>
+        <v>1.0019716156951575E-2</v>
       </c>
       <c r="F19" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A19)</f>
@@ -12374,11 +12434,11 @@
       </c>
       <c r="G19" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A19)</f>
-        <v>0.82824009568011903</v>
+        <v>0.79183590184798192</v>
       </c>
       <c r="H19" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A19)</f>
-        <v>4.5123801346368397E-2</v>
+        <v>4.3140444564652602E-2</v>
       </c>
       <c r="I19" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A19)</f>
@@ -12401,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>2033</v>
       </c>
@@ -12411,7 +12471,7 @@
       </c>
       <c r="C20" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A20)</f>
-        <v>2.7292621782077781E-3</v>
+        <v>2.6093010825394697E-3</v>
       </c>
       <c r="D20" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A20)</f>
@@ -12419,7 +12479,7 @@
       </c>
       <c r="E20" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A20)</f>
-        <v>1.0625927413822289E-2</v>
+        <v>1.0158878881353695E-2</v>
       </c>
       <c r="F20" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A20)</f>
@@ -12427,11 +12487,11 @@
       </c>
       <c r="G20" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A20)</f>
-        <v>0.84206835738303809</v>
+        <v>0.8050563606661818</v>
       </c>
       <c r="H20" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A20)</f>
-        <v>4.5851604593890372E-2</v>
+        <v>4.3836258186663146E-2</v>
       </c>
       <c r="I20" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A20)</f>
@@ -12454,7 +12514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>2034</v>
       </c>
@@ -12464,7 +12524,7 @@
       </c>
       <c r="C21" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A21)</f>
-        <v>2.765652340583874E-3</v>
+        <v>2.6440917636399996E-3</v>
       </c>
       <c r="D21" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A21)</f>
@@ -12472,7 +12532,7 @@
       </c>
       <c r="E21" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A21)</f>
-        <v>1.0771488063326673E-2</v>
+        <v>1.0298041605755814E-2</v>
       </c>
       <c r="F21" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A21)</f>
@@ -12480,11 +12540,11 @@
       </c>
       <c r="G21" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A21)</f>
-        <v>0.85589661908595716</v>
+        <v>0.81827681948438169</v>
       </c>
       <c r="H21" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A21)</f>
-        <v>4.6579407841412568E-2</v>
+        <v>4.453207180867369E-2</v>
       </c>
       <c r="I21" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A21)</f>
@@ -12507,7 +12567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>2035</v>
       </c>
@@ -12517,7 +12577,7 @@
       </c>
       <c r="C22" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A22)</f>
-        <v>2.8020425029599838E-3</v>
+        <v>2.6788824447405157E-3</v>
       </c>
       <c r="D22" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A22)</f>
@@ -12525,7 +12585,7 @@
       </c>
       <c r="E22" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A22)</f>
-        <v>1.0917048712831112E-2</v>
+        <v>1.0437204330157879E-2</v>
       </c>
       <c r="F22" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A22)</f>
@@ -12533,11 +12593,11 @@
       </c>
       <c r="G22" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A22)</f>
-        <v>0.86972488078887622</v>
+        <v>0.83149727830258158</v>
       </c>
       <c r="H22" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A22)</f>
-        <v>4.7307211088934542E-2</v>
+        <v>4.5227885430684234E-2</v>
       </c>
       <c r="I22" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A22)</f>
@@ -12560,7 +12620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>2036</v>
       </c>
@@ -12570,7 +12630,7 @@
       </c>
       <c r="C23" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A23)</f>
-        <v>2.8384326653360797E-3</v>
+        <v>2.7136731258410457E-3</v>
       </c>
       <c r="D23" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A23)</f>
@@ -12578,7 +12638,7 @@
       </c>
       <c r="E23" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A23)</f>
-        <v>1.1062609362335496E-2</v>
+        <v>1.0576367054559999E-2</v>
       </c>
       <c r="F23" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A23)</f>
@@ -12586,11 +12646,11 @@
       </c>
       <c r="G23" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A23)</f>
-        <v>0.88355314249179528</v>
+        <v>0.84471773712078146</v>
       </c>
       <c r="H23" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A23)</f>
-        <v>4.8035014336456738E-2</v>
+        <v>4.5923699052694777E-2</v>
       </c>
       <c r="I23" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A23)</f>
@@ -12613,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>2037</v>
       </c>
@@ -12623,7 +12683,7 @@
       </c>
       <c r="C24" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A24)</f>
-        <v>2.8748228277121896E-3</v>
+        <v>2.7484638069415757E-3</v>
       </c>
       <c r="D24" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A24)</f>
@@ -12631,7 +12691,7 @@
       </c>
       <c r="E24" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A24)</f>
-        <v>1.1208170011839935E-2</v>
+        <v>1.0715529778962118E-2</v>
       </c>
       <c r="F24" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A24)</f>
@@ -12639,11 +12699,11 @@
       </c>
       <c r="G24" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A24)</f>
-        <v>0.89738140419471435</v>
+        <v>0.85793819593898135</v>
       </c>
       <c r="H24" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A24)</f>
-        <v>4.8762817583978713E-2</v>
+        <v>4.6619512674705321E-2</v>
       </c>
       <c r="I24" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A24)</f>
@@ -12666,7 +12726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>2038</v>
       </c>
@@ -12676,7 +12736,7 @@
       </c>
       <c r="C25" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A25)</f>
-        <v>2.9112129900882994E-3</v>
+        <v>2.7832544880421056E-3</v>
       </c>
       <c r="D25" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A25)</f>
@@ -12684,7 +12744,7 @@
       </c>
       <c r="E25" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A25)</f>
-        <v>1.1353730661344374E-2</v>
+        <v>1.0854692503364238E-2</v>
       </c>
       <c r="F25" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A25)</f>
@@ -12692,11 +12752,11 @@
       </c>
       <c r="G25" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A25)</f>
-        <v>0.91120966589763341</v>
+        <v>0.87115865475718124</v>
       </c>
       <c r="H25" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A25)</f>
-        <v>4.9490620831500909E-2</v>
+        <v>4.7315326296715865E-2</v>
       </c>
       <c r="I25" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A25)</f>
@@ -12719,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>2039</v>
       </c>
@@ -12729,7 +12789,7 @@
       </c>
       <c r="C26" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A26)</f>
-        <v>2.9476031524643953E-3</v>
+        <v>2.8180451691426217E-3</v>
       </c>
       <c r="D26" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A26)</f>
@@ -12737,7 +12797,7 @@
       </c>
       <c r="E26" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A26)</f>
-        <v>1.1499291310848758E-2</v>
+        <v>1.0993855227766303E-2</v>
       </c>
       <c r="F26" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A26)</f>
@@ -12745,11 +12805,11 @@
       </c>
       <c r="G26" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A26)</f>
-        <v>0.92503792760055248</v>
+        <v>0.88437911357538113</v>
       </c>
       <c r="H26" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A26)</f>
-        <v>5.0218424079022883E-2</v>
+        <v>4.8011139918726409E-2</v>
       </c>
       <c r="I26" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A26)</f>
@@ -12772,7 +12832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>2040</v>
       </c>
@@ -12782,7 +12842,7 @@
       </c>
       <c r="C27" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A27)</f>
-        <v>2.9839933148405051E-3</v>
+        <v>2.8528358502431517E-3</v>
       </c>
       <c r="D27" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A27)</f>
@@ -12790,7 +12850,7 @@
       </c>
       <c r="E27" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A27)</f>
-        <v>1.1644851960353197E-2</v>
+        <v>1.1133017952168422E-2</v>
       </c>
       <c r="F27" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A27)</f>
@@ -12798,11 +12858,11 @@
       </c>
       <c r="G27" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A27)</f>
-        <v>0.93886618930347154</v>
+        <v>0.89759957239358101</v>
       </c>
       <c r="H27" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A27)</f>
-        <v>5.0946227326545079E-2</v>
+        <v>4.8706953540736952E-2</v>
       </c>
       <c r="I27" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A27)</f>
@@ -12825,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>2041</v>
       </c>
@@ -12835,7 +12895,7 @@
       </c>
       <c r="C28" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A28)</f>
-        <v>3.0203834772166011E-3</v>
+        <v>2.8876265313436816E-3</v>
       </c>
       <c r="D28" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A28)</f>
@@ -12843,7 +12903,7 @@
       </c>
       <c r="E28" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A28)</f>
-        <v>1.1790412609857581E-2</v>
+        <v>1.1272180676570542E-2</v>
       </c>
       <c r="F28" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A28)</f>
@@ -12851,11 +12911,11 @@
       </c>
       <c r="G28" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A28)</f>
-        <v>0.95269445100639061</v>
+        <v>0.9108200312117809</v>
       </c>
       <c r="H28" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A28)</f>
-        <v>5.1674030574067054E-2</v>
+        <v>4.9402767162747496E-2</v>
       </c>
       <c r="I28" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A28)</f>
@@ -12878,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>2042</v>
       </c>
@@ -12888,7 +12948,7 @@
       </c>
       <c r="C29" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A29)</f>
-        <v>3.0567736395927109E-3</v>
+        <v>2.9224172124442116E-3</v>
       </c>
       <c r="D29" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A29)</f>
@@ -12896,7 +12956,7 @@
       </c>
       <c r="E29" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A29)</f>
-        <v>1.193597325936202E-2</v>
+        <v>1.1411343400972662E-2</v>
       </c>
       <c r="F29" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A29)</f>
@@ -12904,11 +12964,11 @@
       </c>
       <c r="G29" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A29)</f>
-        <v>0.96652271270931323</v>
+        <v>0.92404049002998079</v>
       </c>
       <c r="H29" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A29)</f>
-        <v>5.2401833821589028E-2</v>
+        <v>5.0098580784757818E-2</v>
       </c>
       <c r="I29" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A29)</f>
@@ -12931,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>2043</v>
       </c>
@@ -12941,7 +13001,7 @@
       </c>
       <c r="C30" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A30)</f>
-        <v>3.0931638019688068E-3</v>
+        <v>2.9572078935447277E-3</v>
       </c>
       <c r="D30" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A30)</f>
@@ -12949,7 +13009,7 @@
       </c>
       <c r="E30" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A30)</f>
-        <v>1.2081533908866404E-2</v>
+        <v>1.1550506125374727E-2</v>
       </c>
       <c r="F30" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A30)</f>
@@ -12957,11 +13017,11 @@
       </c>
       <c r="G30" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A30)</f>
-        <v>0.98035097441223229</v>
+        <v>0.93726094884818067</v>
       </c>
       <c r="H30" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A30)</f>
-        <v>5.3129637069111224E-2</v>
+        <v>5.0794394406768362E-2</v>
       </c>
       <c r="I30" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A30)</f>
@@ -12984,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>2044</v>
       </c>
@@ -12994,7 +13054,7 @@
       </c>
       <c r="C31" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A31)</f>
-        <v>3.1295539643449166E-3</v>
+        <v>2.9919985746452576E-3</v>
       </c>
       <c r="D31" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A31)</f>
@@ -13002,7 +13062,7 @@
       </c>
       <c r="E31" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A31)</f>
-        <v>1.2227094558370843E-2</v>
+        <v>1.1689668849776846E-2</v>
       </c>
       <c r="F31" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A31)</f>
@@ -13010,11 +13070,11 @@
       </c>
       <c r="G31" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A31)</f>
-        <v>0.99417923611515135</v>
+        <v>0.95048140766638056</v>
       </c>
       <c r="H31" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A31)</f>
-        <v>5.3857440316633198E-2</v>
+        <v>5.1490208028778905E-2</v>
       </c>
       <c r="I31" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A31)</f>
@@ -13037,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>2045</v>
       </c>
@@ -13047,7 +13107,7 @@
       </c>
       <c r="C32" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A32)</f>
-        <v>3.1659441267210126E-3</v>
+        <v>3.0267892557457876E-3</v>
       </c>
       <c r="D32" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A32)</f>
@@ -13055,7 +13115,7 @@
       </c>
       <c r="E32" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A32)</f>
-        <v>1.2372655207875227E-2</v>
+        <v>1.1828831574178966E-2</v>
       </c>
       <c r="F32" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A32)</f>
@@ -13063,11 +13123,11 @@
       </c>
       <c r="G32" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A32)</f>
-        <v>1.0080074978180704</v>
+        <v>0.96370186648458045</v>
       </c>
       <c r="H32" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A32)</f>
-        <v>5.4585243564155395E-2</v>
+        <v>5.2186021650789449E-2</v>
       </c>
       <c r="I32" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A32)</f>
@@ -13090,7 +13150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>2046</v>
       </c>
@@ -13100,7 +13160,7 @@
       </c>
       <c r="C33" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A33)</f>
-        <v>3.2023342890971224E-3</v>
+        <v>3.0615799368463176E-3</v>
       </c>
       <c r="D33" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A33)</f>
@@ -13108,7 +13168,7 @@
       </c>
       <c r="E33" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A33)</f>
-        <v>1.2518215857379666E-2</v>
+        <v>1.1967994298581086E-2</v>
       </c>
       <c r="F33" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A33)</f>
@@ -13116,11 +13176,11 @@
       </c>
       <c r="G33" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A33)</f>
-        <v>1.0218357595209895</v>
+        <v>0.97692232530278034</v>
       </c>
       <c r="H33" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A33)</f>
-        <v>5.5313046811677369E-2</v>
+        <v>5.2881835272799993E-2</v>
       </c>
       <c r="I33" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A33)</f>
@@ -13143,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>2047</v>
       </c>
@@ -13153,7 +13213,7 @@
       </c>
       <c r="C34" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A34)</f>
-        <v>3.2387244514732183E-3</v>
+        <v>3.0963706179468337E-3</v>
       </c>
       <c r="D34" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A34)</f>
@@ -13161,7 +13221,7 @@
       </c>
       <c r="E34" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A34)</f>
-        <v>1.266377650688405E-2</v>
+        <v>1.210715702298315E-2</v>
       </c>
       <c r="F34" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A34)</f>
@@ -13169,11 +13229,11 @@
       </c>
       <c r="G34" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A34)</f>
-        <v>1.0356640212239085</v>
+        <v>0.99014278412098022</v>
       </c>
       <c r="H34" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A34)</f>
-        <v>5.6040850059199565E-2</v>
+        <v>5.3577648894810537E-2</v>
       </c>
       <c r="I34" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A34)</f>
@@ -13196,7 +13256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>2048</v>
       </c>
@@ -13206,7 +13266,7 @@
       </c>
       <c r="C35" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A35)</f>
-        <v>3.2751146138493281E-3</v>
+        <v>3.1311612990473636E-3</v>
       </c>
       <c r="D35" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A35)</f>
@@ -13214,7 +13274,7 @@
       </c>
       <c r="E35" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A35)</f>
-        <v>1.2809337156388489E-2</v>
+        <v>1.224631974738527E-2</v>
       </c>
       <c r="F35" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A35)</f>
@@ -13222,11 +13282,11 @@
       </c>
       <c r="G35" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A35)</f>
-        <v>1.0494922829268276</v>
+        <v>1.0033632429391801</v>
       </c>
       <c r="H35" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A35)</f>
-        <v>5.6768653306721539E-2</v>
+        <v>5.427346251682108E-2</v>
       </c>
       <c r="I35" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A35)</f>
@@ -13249,7 +13309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>2049</v>
       </c>
@@ -13259,7 +13319,7 @@
       </c>
       <c r="C36" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A36)</f>
-        <v>3.3115047762254379E-3</v>
+        <v>3.1659519801478936E-3</v>
       </c>
       <c r="D36" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A36)</f>
@@ -13267,7 +13327,7 @@
       </c>
       <c r="E36" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A36)</f>
-        <v>1.2954897805892929E-2</v>
+        <v>1.238548247178739E-2</v>
       </c>
       <c r="F36" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A36)</f>
@@ -13275,11 +13335,11 @@
       </c>
       <c r="G36" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A36)</f>
-        <v>1.0633205446297467</v>
+        <v>1.01658370175738</v>
       </c>
       <c r="H36" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A36)</f>
-        <v>5.7496456554243514E-2</v>
+        <v>5.4969276138831624E-2</v>
       </c>
       <c r="I36" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A36)</f>
@@ -13302,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>2050</v>
       </c>
@@ -13312,7 +13372,7 @@
       </c>
       <c r="C37" s="11">
         <f>TREND(Calculations!C$157:C$158,Calculations!$A$157:$A$158,$A37)</f>
-        <v>3.3478949386015339E-3</v>
+        <v>3.2007426612484097E-3</v>
       </c>
       <c r="D37" s="11">
         <f>TREND(Calculations!D$157:D$158,Calculations!$A$157:$A$158,$A37)</f>
@@ -13320,7 +13380,7 @@
       </c>
       <c r="E37" s="11">
         <f>TREND(Calculations!E$157:E$158,Calculations!$A$157:$A$158,$A37)</f>
-        <v>1.3100458455397312E-2</v>
+        <v>1.2524645196189454E-2</v>
       </c>
       <c r="F37" s="11">
         <f>TREND(Calculations!F$157:F$158,Calculations!$A$157:$A$158,$A37)</f>
@@ -13328,11 +13388,11 @@
       </c>
       <c r="G37" s="11">
         <f>TREND(Calculations!G$157:G$158,Calculations!$A$157:$A$158,$A37)</f>
-        <v>1.0771488063326657</v>
+        <v>1.0298041605755799</v>
       </c>
       <c r="H37" s="11">
         <f>TREND(Calculations!H$157:H$158,Calculations!$A$157:$A$158,$A37)</f>
-        <v>5.822425980176571E-2</v>
+        <v>5.5665089760842168E-2</v>
       </c>
       <c r="I37" s="11">
         <f>TREND(Calculations!I$157:I$158,Calculations!$A$157:$A$158,$A37)</f>
